--- a/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="API List" sheetId="46" r:id="rId5"/>
     <sheet name="Create user" sheetId="34" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="247">
   <si>
     <t>Description</t>
   </si>
@@ -696,6 +696,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>response</t>
     </r>
@@ -754,6 +755,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>mail address</t>
     </r>
@@ -762,6 +764,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.</t>
     </r>
@@ -773,6 +776,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Create </t>
     </r>
@@ -782,6 +786,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">User </t>
     </r>
@@ -791,6 +796,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>A</t>
     </r>
@@ -800,6 +806,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ccount</t>
     </r>
@@ -842,13 +849,19 @@
   </si>
   <si>
     <t>nguyen.viet@mulodo.com</t>
+  </si>
+  <si>
+    <t>Database do not have data</t>
+  </si>
+  <si>
+    <t>{Should input with true data}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,6 +903,7 @@
       <sz val="18"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -897,18 +911,21 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,18 +933,21 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF963634"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -939,6 +959,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -951,38 +972,46 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1030,27 +1059,44 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF502EDE"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1709,7 +1755,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2116,29 +2162,73 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2150,44 +2240,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2216,6 +2268,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2228,54 +2295,33 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2315,14 +2361,8 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2339,6 +2379,9 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2353,6 +2396,27 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="411">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2769,6 +2833,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF502EDE"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4552,297 +4621,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="173" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="175" t="s">
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="209" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="176"/>
-      <c r="M1" s="177"/>
-      <c r="N1" s="178" t="s">
+      <c r="L1" s="210"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
-      <c r="Q1" s="179"/>
-      <c r="R1" s="179"/>
-      <c r="S1" s="179"/>
-      <c r="T1" s="179"/>
-      <c r="U1" s="180"/>
-      <c r="V1" s="181" t="s">
+      <c r="O1" s="192"/>
+      <c r="P1" s="192"/>
+      <c r="Q1" s="192"/>
+      <c r="R1" s="192"/>
+      <c r="S1" s="192"/>
+      <c r="T1" s="192"/>
+      <c r="U1" s="193"/>
+      <c r="V1" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="182"/>
-      <c r="X1" s="182"/>
-      <c r="Y1" s="182"/>
-      <c r="Z1" s="182"/>
-      <c r="AA1" s="182"/>
-      <c r="AB1" s="182"/>
-      <c r="AC1" s="182"/>
-      <c r="AD1" s="183"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="214"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="204" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="187" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="188"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="199" t="s">
+      <c r="L2" s="187"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="206" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="200"/>
-      <c r="Q2" s="200"/>
-      <c r="R2" s="200"/>
-      <c r="S2" s="200"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="201"/>
-      <c r="V2" s="184" t="s">
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="208"/>
+      <c r="V2" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="185"/>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="184" t="s">
+      <c r="W2" s="184"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="185"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="184" t="s">
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="185"/>
-      <c r="AD2" s="186"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="185"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="188"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="190" t="s">
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="189" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="191"/>
-      <c r="H3" s="191"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="187" t="s">
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="188"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="178" t="s">
+      <c r="L3" s="187"/>
+      <c r="M3" s="188"/>
+      <c r="N3" s="191" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="180"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="193"/>
-      <c r="X3" s="194"/>
-      <c r="Y3" s="195"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="198"/>
-      <c r="AC3" s="196"/>
-      <c r="AD3" s="197"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="192"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="192"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="194"/>
+      <c r="W3" s="195"/>
+      <c r="X3" s="196"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="199"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="199"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214" t="s">
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="214" t="s">
+      <c r="G8" s="181"/>
+      <c r="H8" s="181" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="214"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="214" t="s">
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="214"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="214"/>
-      <c r="R8" s="214"/>
-      <c r="S8" s="214"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="214"/>
-      <c r="V8" s="214"/>
-      <c r="W8" s="214"/>
-      <c r="X8" s="214" t="s">
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="214"/>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="214"/>
-      <c r="AB8" s="214"/>
-      <c r="AC8" s="214"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="202" t="s">
+      <c r="B9" s="182" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205" t="s">
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="173" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="206"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="209"/>
-      <c r="O9" s="209"/>
-      <c r="P9" s="209"/>
-      <c r="Q9" s="209"/>
-      <c r="R9" s="209"/>
-      <c r="S9" s="209"/>
-      <c r="T9" s="209"/>
-      <c r="U9" s="209"/>
-      <c r="V9" s="209"/>
-      <c r="W9" s="210"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="212"/>
-      <c r="Z9" s="212"/>
-      <c r="AA9" s="212"/>
-      <c r="AB9" s="212"/>
-      <c r="AC9" s="213"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="176"/>
+      <c r="M9" s="176"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="176"/>
+      <c r="S9" s="176"/>
+      <c r="T9" s="176"/>
+      <c r="U9" s="176"/>
+      <c r="V9" s="176"/>
+      <c r="W9" s="177"/>
+      <c r="X9" s="178"/>
+      <c r="Y9" s="179"/>
+      <c r="Z9" s="179"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="179"/>
+      <c r="AC9" s="180"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="207"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="206"/>
-      <c r="H10" s="207"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="209"/>
-      <c r="O10" s="209"/>
-      <c r="P10" s="209"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="210"/>
-      <c r="X10" s="211"/>
-      <c r="Y10" s="212"/>
-      <c r="Z10" s="212"/>
-      <c r="AA10" s="212"/>
-      <c r="AB10" s="212"/>
-      <c r="AC10" s="213"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="173"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="178"/>
+      <c r="Y10" s="179"/>
+      <c r="Z10" s="179"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="179"/>
+      <c r="AC10" s="180"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="207"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="203"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="206"/>
-      <c r="H11" s="207"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="208"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="209"/>
-      <c r="O11" s="209"/>
-      <c r="P11" s="209"/>
-      <c r="Q11" s="209"/>
-      <c r="R11" s="209"/>
-      <c r="S11" s="209"/>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
-      <c r="V11" s="209"/>
-      <c r="W11" s="210"/>
-      <c r="X11" s="211"/>
-      <c r="Y11" s="212"/>
-      <c r="Z11" s="212"/>
-      <c r="AA11" s="212"/>
-      <c r="AB11" s="212"/>
-      <c r="AC11" s="213"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="177"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="179"/>
+      <c r="Z11" s="179"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="179"/>
+      <c r="AC11" s="180"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="207"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="203"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="206"/>
-      <c r="H12" s="207"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="208"/>
-      <c r="L12" s="209"/>
-      <c r="M12" s="209"/>
-      <c r="N12" s="209"/>
-      <c r="O12" s="209"/>
-      <c r="P12" s="209"/>
-      <c r="Q12" s="209"/>
-      <c r="R12" s="209"/>
-      <c r="S12" s="209"/>
-      <c r="T12" s="209"/>
-      <c r="U12" s="209"/>
-      <c r="V12" s="209"/>
-      <c r="W12" s="210"/>
-      <c r="X12" s="211"/>
-      <c r="Y12" s="212"/>
-      <c r="Z12" s="212"/>
-      <c r="AA12" s="212"/>
-      <c r="AB12" s="212"/>
-      <c r="AC12" s="213"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="179"/>
+      <c r="Z12" s="179"/>
+      <c r="AA12" s="179"/>
+      <c r="AB12" s="179"/>
+      <c r="AC12" s="180"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4872,31 +4941,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4911,11 +4960,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5965,8 +6034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6020,10 +6089,10 @@
       <c r="C4" s="103" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="216" t="s">
+      <c r="D4" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="216"/>
+      <c r="E4" s="217"/>
       <c r="F4" s="143" t="s">
         <v>216</v>
       </c>
@@ -6041,10 +6110,10 @@
       <c r="C5" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="217" t="s">
+      <c r="D5" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="217"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="148" t="s">
         <v>219</v>
       </c>
@@ -6099,24 +6168,28 @@
       <c r="C9" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="216" t="s">
+      <c r="D9" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="216"/>
+      <c r="E9" s="217"/>
       <c r="F9" s="143" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="125">
+      <c r="B10" s="249">
         <v>1</v>
       </c>
-      <c r="C10" s="126" t="s">
+      <c r="C10" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="142"/>
+      <c r="D10" s="251" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="251"/>
+      <c r="F10" s="252" t="s">
+        <v>245</v>
+      </c>
       <c r="G10" s="124"/>
       <c r="H10" s="124"/>
     </row>
@@ -6127,9 +6200,9 @@
       <c r="C11" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="142"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="247"/>
+      <c r="F11" s="248"/>
       <c r="G11" s="124"/>
       <c r="H11" s="124"/>
     </row>
@@ -6200,10 +6273,10 @@
       <c r="C18" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D18" s="216" t="s">
+      <c r="D18" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E18" s="216"/>
+      <c r="E18" s="217"/>
       <c r="F18" s="143" t="s">
         <v>216</v>
       </c>
@@ -6301,10 +6374,10 @@
       <c r="C27" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="216" t="s">
+      <c r="D27" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E27" s="216"/>
+      <c r="E27" s="217"/>
       <c r="F27" s="143" t="s">
         <v>216</v>
       </c>
@@ -6316,8 +6389,8 @@
       <c r="C28" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="217"/>
-      <c r="E28" s="217"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="216"/>
       <c r="F28" s="149"/>
       <c r="G28" s="124"/>
       <c r="H28" s="124"/>
@@ -6439,10 +6512,10 @@
       <c r="C40" s="156" t="s">
         <v>215</v>
       </c>
-      <c r="D40" s="216" t="s">
+      <c r="D40" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E40" s="216"/>
+      <c r="E40" s="217"/>
       <c r="F40" s="156" t="s">
         <v>216</v>
       </c>
@@ -6513,10 +6586,10 @@
       <c r="C49" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D49" s="216" t="s">
+      <c r="D49" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E49" s="216"/>
+      <c r="E49" s="217"/>
       <c r="F49" s="143" t="s">
         <v>216</v>
       </c>
@@ -6611,10 +6684,10 @@
       <c r="C60" s="143" t="s">
         <v>215</v>
       </c>
-      <c r="D60" s="216" t="s">
+      <c r="D60" s="217" t="s">
         <v>218</v>
       </c>
-      <c r="E60" s="216"/>
+      <c r="E60" s="217"/>
       <c r="F60" s="143" t="s">
         <v>216</v>
       </c>
@@ -6676,15 +6749,27 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D23:E23"/>
@@ -6701,27 +6786,15 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7198,7 +7271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -7284,12 +7357,12 @@
       <c r="C4" s="230" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
-      <c r="F4" s="231"/>
-      <c r="G4" s="231"/>
-      <c r="H4" s="231"/>
-      <c r="I4" s="232"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="231"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7305,12 +7378,12 @@
       <c r="C5" s="230" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="231"/>
-      <c r="G5" s="231"/>
-      <c r="H5" s="231"/>
-      <c r="I5" s="232"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
+      <c r="H5" s="239"/>
+      <c r="I5" s="231"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7347,12 +7420,12 @@
       <c r="C7" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="231"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="231"/>
-      <c r="G7" s="231"/>
-      <c r="H7" s="231"/>
-      <c r="I7" s="232"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="231"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7389,12 +7462,12 @@
       <c r="C9" s="230" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="232"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="239"/>
+      <c r="I9" s="231"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7457,19 +7530,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="234" t="s">
+      <c r="B13" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="235"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="236"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="233"/>
+      <c r="E13" s="233"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
+      <c r="J13" s="233"/>
+      <c r="K13" s="233"/>
+      <c r="L13" s="234"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7498,11 +7571,11 @@
       <c r="I14" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="233" t="s">
+      <c r="J14" s="246" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="233"/>
-      <c r="L14" s="233"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="246"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7531,11 +7604,11 @@
       <c r="I15" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="J15" s="240" t="s">
+      <c r="J15" s="238" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="240"/>
-      <c r="L15" s="240"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7564,11 +7637,11 @@
       <c r="I16" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="J16" s="240" t="s">
+      <c r="J16" s="238" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="240"/>
-      <c r="L16" s="240"/>
+      <c r="K16" s="238"/>
+      <c r="L16" s="238"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7633,8 +7706,8 @@
       <c r="J18" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="231"/>
-      <c r="L18" s="232"/>
+      <c r="K18" s="239"/>
+      <c r="L18" s="231"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -7666,8 +7739,8 @@
       <c r="J19" s="230" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="231"/>
-      <c r="L19" s="232"/>
+      <c r="K19" s="239"/>
+      <c r="L19" s="231"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -7829,11 +7902,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="241" t="s">
+      <c r="B29" s="240" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="241"/>
-      <c r="D29" s="241"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="240"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -7848,12 +7921,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="237" t="s">
+      <c r="B30" s="235" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="238"/>
-      <c r="D30" s="238"/>
-      <c r="E30" s="239"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="237"/>
       <c r="F30" s="76" t="s">
         <v>132</v>
       </c>
@@ -7945,10 +8018,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="231" t="s">
+      <c r="D33" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="232"/>
+      <c r="E33" s="231"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -7978,10 +8051,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="231" t="s">
+      <c r="D34" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="232"/>
+      <c r="E34" s="231"/>
       <c r="F34" s="78" t="s">
         <v>200</v>
       </c>
@@ -8044,10 +8117,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="231" t="s">
+      <c r="D36" s="239" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="232"/>
+      <c r="E36" s="231"/>
       <c r="F36" s="78" t="s">
         <v>204</v>
       </c>
@@ -8077,10 +8150,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="245" t="s">
+      <c r="D37" s="244" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="246"/>
+      <c r="E37" s="245"/>
       <c r="F37" s="78" t="s">
         <v>174</v>
       </c>
@@ -8110,10 +8183,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="231" t="s">
+      <c r="D38" s="239" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="232"/>
+      <c r="E38" s="231"/>
       <c r="F38" s="78" t="s">
         <v>184</v>
       </c>
@@ -8633,10 +8706,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="242" t="s">
+      <c r="D63" s="241" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="232"/>
+      <c r="E63" s="231"/>
       <c r="F63" s="78" t="s">
         <v>148</v>
       </c>
@@ -8666,10 +8739,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="242" t="s">
+      <c r="D64" s="241" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="243"/>
+      <c r="E64" s="242"/>
       <c r="F64" s="150" t="s">
         <v>221</v>
       </c>
@@ -8699,10 +8772,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="244" t="s">
+      <c r="D65" s="243" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="243"/>
+      <c r="E65" s="242"/>
       <c r="F65" s="150" t="s">
         <v>224</v>
       </c>
@@ -8797,7 +8870,7 @@
       <c r="B68" s="97"/>
       <c r="C68" s="98"/>
       <c r="D68" s="230"/>
-      <c r="E68" s="232"/>
+      <c r="E68" s="231"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -9193,6 +9266,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9209,11 +9287,6 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="386">
   <si>
     <t>Description</t>
   </si>
@@ -967,12 +967,6 @@
     <t>ID of user</t>
   </si>
   <si>
-    <t>http://192.168.56.2:8080/miniblog/users/update/{id}</t>
-  </si>
-  <si>
-    <t>/miniblog/users/update/{id}</t>
-  </si>
-  <si>
     <t>Change password</t>
   </si>
   <si>
@@ -994,37 +988,16 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>PUT  / miniblog/users/update/xxx</t>
-  </si>
-  <si>
     <t>/miniblog/users/infor/{id}</t>
   </si>
   <si>
     <t>GET  / miniblog/users/infor/xxx</t>
   </si>
   <si>
-    <t>/miniblog/users/changPass/{id}</t>
-  </si>
-  <si>
-    <t>POST  / miniblog/users/changPass/xxx</t>
-  </si>
-  <si>
-    <t>http://192.168.56.2:8080/miniblog/users/changePass/{id}</t>
-  </si>
-  <si>
     <t>Search User by name</t>
   </si>
   <si>
-    <t>/miniblog/users/search/{name}</t>
-  </si>
-  <si>
-    <t>GET  / miniblog/users/search/xxxx</t>
-  </si>
-  <si>
     <t>Get all user by name</t>
-  </si>
-  <si>
-    <t>http://192.168.56.2:8080/miniblog/users/search/{name}</t>
   </si>
   <si>
     <t>Create post</t>
@@ -1286,6 +1259,36 @@
   </si>
   <si>
     <t>User exits!</t>
+  </si>
+  <si>
+    <t>http://192.168.56.2:8080/miniblog/users/update</t>
+  </si>
+  <si>
+    <t>/miniblog/users/update</t>
+  </si>
+  <si>
+    <t>PUT  / miniblog/users/update</t>
+  </si>
+  <si>
+    <t>http://192.168.56.2:8080/miniblog/users/search</t>
+  </si>
+  <si>
+    <t>/miniblog/users/search</t>
+  </si>
+  <si>
+    <t>/miniblog/users/changePass</t>
+  </si>
+  <si>
+    <t>PUT  / miniblog/users/changePass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST </t>
+  </si>
+  <si>
+    <t>POST  / miniblog/users/search</t>
+  </si>
+  <si>
+    <t>http://192.168.56.2:8080/miniblog/users/changePass</t>
   </si>
 </sst>
 </file>
@@ -2679,44 +2682,48 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2748,16 +2755,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2785,21 +2782,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2812,43 +2794,64 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2884,8 +2887,14 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2902,9 +2911,6 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2919,9 +2925,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2934,13 +2937,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -18026,7 +18029,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Content-Type:  application/x-www-form-urlencoded</a:t>
+            <a:t>Content-Type:  application/json</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18927,12 +18930,6 @@
             <a:t>Content-Length: 136</a:t>
           </a:r>
         </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -20058,7 +20055,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /miniblog/users/changePass/1 HTTP/1.1</a:t>
+            <a:t>POST /miniblog/users/changePass HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21050,7 +21047,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>firstname='viet'&amp;lastname='viet'</a:t>
+            <a:t>name=n</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -23315,297 +23312,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="208" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="242" t="s">
+      <c r="B1" s="209"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="211" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="243"/>
-      <c r="I1" s="243"/>
-      <c r="J1" s="243"/>
-      <c r="K1" s="247" t="s">
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="248"/>
-      <c r="M1" s="249"/>
-      <c r="N1" s="229" t="s">
+      <c r="L1" s="214"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="250" t="s">
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="218"/>
+      <c r="V1" s="219" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="251"/>
-      <c r="X1" s="251"/>
-      <c r="Y1" s="251"/>
-      <c r="Z1" s="251"/>
-      <c r="AA1" s="251"/>
-      <c r="AB1" s="251"/>
-      <c r="AC1" s="251"/>
-      <c r="AD1" s="252"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="221"/>
     </row>
     <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="242" t="s">
+      <c r="B2" s="209"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="211" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="243"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="224" t="s">
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="225" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="225"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="244" t="s">
+      <c r="L2" s="226"/>
+      <c r="M2" s="227"/>
+      <c r="N2" s="237" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="245"/>
-      <c r="P2" s="245"/>
-      <c r="Q2" s="245"/>
-      <c r="R2" s="245"/>
-      <c r="S2" s="245"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="221" t="s">
+      <c r="O2" s="238"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="238"/>
+      <c r="S2" s="238"/>
+      <c r="T2" s="238"/>
+      <c r="U2" s="239"/>
+      <c r="V2" s="222" t="s">
         <v>159</v>
       </c>
-      <c r="W2" s="222"/>
-      <c r="X2" s="223"/>
-      <c r="Y2" s="221" t="s">
+      <c r="W2" s="223"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="222" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="222"/>
-      <c r="AA2" s="223"/>
-      <c r="AB2" s="221" t="s">
+      <c r="Z2" s="223"/>
+      <c r="AA2" s="224"/>
+      <c r="AB2" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="222"/>
-      <c r="AD2" s="223"/>
+      <c r="AC2" s="223"/>
+      <c r="AD2" s="224"/>
     </row>
     <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="225" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227" t="s">
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="228" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="228"/>
-      <c r="H3" s="228"/>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="224" t="s">
+      <c r="E3" s="229"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="229"/>
+      <c r="H3" s="229"/>
+      <c r="I3" s="229"/>
+      <c r="J3" s="229"/>
+      <c r="K3" s="225" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="225"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="229" t="s">
+      <c r="L3" s="226"/>
+      <c r="M3" s="227"/>
+      <c r="N3" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="230"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="230"/>
-      <c r="S3" s="230"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="231"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="233"/>
-      <c r="X3" s="234"/>
-      <c r="Y3" s="235"/>
-      <c r="Z3" s="236"/>
-      <c r="AA3" s="237"/>
-      <c r="AB3" s="238"/>
-      <c r="AC3" s="236"/>
-      <c r="AD3" s="237"/>
+      <c r="O3" s="217"/>
+      <c r="P3" s="217"/>
+      <c r="Q3" s="217"/>
+      <c r="R3" s="217"/>
+      <c r="S3" s="217"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="218"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="231"/>
+      <c r="X3" s="232"/>
+      <c r="Y3" s="233"/>
+      <c r="Z3" s="234"/>
+      <c r="AA3" s="235"/>
+      <c r="AB3" s="236"/>
+      <c r="AC3" s="234"/>
+      <c r="AD3" s="235"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="252" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="219"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="219"/>
-      <c r="F8" s="219" t="s">
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="219"/>
-      <c r="H8" s="219" t="s">
+      <c r="G8" s="252"/>
+      <c r="H8" s="252" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="219"/>
-      <c r="J8" s="219"/>
-      <c r="K8" s="219" t="s">
+      <c r="I8" s="252"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="219"/>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="219"/>
-      <c r="S8" s="219"/>
-      <c r="T8" s="219"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="219" t="s">
+      <c r="L8" s="252"/>
+      <c r="M8" s="252"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="252"/>
+      <c r="S8" s="252"/>
+      <c r="T8" s="252"/>
+      <c r="U8" s="252"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="252"/>
+      <c r="X8" s="252" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="219"/>
-      <c r="Z8" s="219"/>
-      <c r="AA8" s="219"/>
-      <c r="AB8" s="219"/>
-      <c r="AC8" s="219"/>
+      <c r="Y8" s="252"/>
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="252"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="220" t="s">
+      <c r="B9" s="240" t="s">
         <v>234</v>
       </c>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211" t="s">
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="243" t="s">
         <v>154</v>
       </c>
-      <c r="G9" s="212"/>
-      <c r="H9" s="208"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="213"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="214"/>
-      <c r="O9" s="214"/>
-      <c r="P9" s="214"/>
-      <c r="Q9" s="214"/>
-      <c r="R9" s="214"/>
-      <c r="S9" s="214"/>
-      <c r="T9" s="214"/>
-      <c r="U9" s="214"/>
-      <c r="V9" s="214"/>
-      <c r="W9" s="215"/>
-      <c r="X9" s="216"/>
-      <c r="Y9" s="217"/>
-      <c r="Z9" s="217"/>
-      <c r="AA9" s="217"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="218"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="247"/>
+      <c r="M9" s="247"/>
+      <c r="N9" s="247"/>
+      <c r="O9" s="247"/>
+      <c r="P9" s="247"/>
+      <c r="Q9" s="247"/>
+      <c r="R9" s="247"/>
+      <c r="S9" s="247"/>
+      <c r="T9" s="247"/>
+      <c r="U9" s="247"/>
+      <c r="V9" s="247"/>
+      <c r="W9" s="248"/>
+      <c r="X9" s="249"/>
+      <c r="Y9" s="250"/>
+      <c r="Z9" s="250"/>
+      <c r="AA9" s="250"/>
+      <c r="AB9" s="250"/>
+      <c r="AC9" s="251"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="208"/>
-      <c r="C10" s="209"/>
-      <c r="D10" s="209"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212"/>
-      <c r="H10" s="208"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="214"/>
-      <c r="M10" s="214"/>
-      <c r="N10" s="214"/>
-      <c r="O10" s="214"/>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="214"/>
-      <c r="R10" s="214"/>
-      <c r="S10" s="214"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="214"/>
-      <c r="V10" s="214"/>
-      <c r="W10" s="215"/>
-      <c r="X10" s="216"/>
-      <c r="Y10" s="217"/>
-      <c r="Z10" s="217"/>
-      <c r="AA10" s="217"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="218"/>
+      <c r="B10" s="245"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="245"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="247"/>
+      <c r="M10" s="247"/>
+      <c r="N10" s="247"/>
+      <c r="O10" s="247"/>
+      <c r="P10" s="247"/>
+      <c r="Q10" s="247"/>
+      <c r="R10" s="247"/>
+      <c r="S10" s="247"/>
+      <c r="T10" s="247"/>
+      <c r="U10" s="247"/>
+      <c r="V10" s="247"/>
+      <c r="W10" s="248"/>
+      <c r="X10" s="249"/>
+      <c r="Y10" s="250"/>
+      <c r="Z10" s="250"/>
+      <c r="AA10" s="250"/>
+      <c r="AB10" s="250"/>
+      <c r="AC10" s="251"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="208"/>
-      <c r="C11" s="209"/>
-      <c r="D11" s="209"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="212"/>
-      <c r="H11" s="208"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="213"/>
-      <c r="L11" s="214"/>
-      <c r="M11" s="214"/>
-      <c r="N11" s="214"/>
-      <c r="O11" s="214"/>
-      <c r="P11" s="214"/>
-      <c r="Q11" s="214"/>
-      <c r="R11" s="214"/>
-      <c r="S11" s="214"/>
-      <c r="T11" s="214"/>
-      <c r="U11" s="214"/>
-      <c r="V11" s="214"/>
-      <c r="W11" s="215"/>
-      <c r="X11" s="216"/>
-      <c r="Y11" s="217"/>
-      <c r="Z11" s="217"/>
-      <c r="AA11" s="217"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="218"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="243"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="245"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="247"/>
+      <c r="M11" s="247"/>
+      <c r="N11" s="247"/>
+      <c r="O11" s="247"/>
+      <c r="P11" s="247"/>
+      <c r="Q11" s="247"/>
+      <c r="R11" s="247"/>
+      <c r="S11" s="247"/>
+      <c r="T11" s="247"/>
+      <c r="U11" s="247"/>
+      <c r="V11" s="247"/>
+      <c r="W11" s="248"/>
+      <c r="X11" s="249"/>
+      <c r="Y11" s="250"/>
+      <c r="Z11" s="250"/>
+      <c r="AA11" s="250"/>
+      <c r="AB11" s="250"/>
+      <c r="AC11" s="251"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="208"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="208"/>
-      <c r="I12" s="209"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="213"/>
-      <c r="L12" s="214"/>
-      <c r="M12" s="214"/>
-      <c r="N12" s="214"/>
-      <c r="O12" s="214"/>
-      <c r="P12" s="214"/>
-      <c r="Q12" s="214"/>
-      <c r="R12" s="214"/>
-      <c r="S12" s="214"/>
-      <c r="T12" s="214"/>
-      <c r="U12" s="214"/>
-      <c r="V12" s="214"/>
-      <c r="W12" s="215"/>
-      <c r="X12" s="216"/>
-      <c r="Y12" s="217"/>
-      <c r="Z12" s="217"/>
-      <c r="AA12" s="217"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="218"/>
+      <c r="B12" s="245"/>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="243"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="245"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="247"/>
+      <c r="M12" s="247"/>
+      <c r="N12" s="247"/>
+      <c r="O12" s="247"/>
+      <c r="P12" s="247"/>
+      <c r="Q12" s="247"/>
+      <c r="R12" s="247"/>
+      <c r="S12" s="247"/>
+      <c r="T12" s="247"/>
+      <c r="U12" s="247"/>
+      <c r="V12" s="247"/>
+      <c r="W12" s="248"/>
+      <c r="X12" s="249"/>
+      <c r="Y12" s="250"/>
+      <c r="Z12" s="250"/>
+      <c r="AA12" s="250"/>
+      <c r="AB12" s="250"/>
+      <c r="AC12" s="251"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -23635,11 +23632,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -23654,31 +23671,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23695,8 +23692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -23778,15 +23775,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="282" t="s">
         <v>266</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -23799,15 +23796,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
+      <c r="C5" s="282" t="s">
         <v>267</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -23821,7 +23818,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -23841,15 +23838,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -23886,12 +23883,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -23954,19 +23951,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -23995,11 +23992,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -24161,11 +24158,11 @@
     </row>
     <row r="24" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="69"/>
-      <c r="B24" s="280" t="s">
+      <c r="B24" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="280"/>
-      <c r="D24" s="280"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="86"/>
       <c r="F24" s="87"/>
       <c r="G24" s="86"/>
@@ -24180,12 +24177,12 @@
     </row>
     <row r="25" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="89"/>
-      <c r="B25" s="275" t="s">
+      <c r="B25" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="276"/>
-      <c r="D25" s="276"/>
-      <c r="E25" s="277"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="279"/>
       <c r="F25" s="164" t="s">
         <v>132</v>
       </c>
@@ -24277,10 +24274,10 @@
       <c r="A28" s="66"/>
       <c r="B28" s="91"/>
       <c r="C28" s="96"/>
-      <c r="D28" s="279" t="s">
+      <c r="D28" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="271"/>
+      <c r="E28" s="272"/>
       <c r="F28" s="78" t="s">
         <v>148</v>
       </c>
@@ -24310,10 +24307,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="98"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>200</v>
       </c>
@@ -24376,10 +24373,10 @@
       <c r="A31" s="66"/>
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
-      <c r="D31" s="279" t="s">
+      <c r="D31" s="271" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="271"/>
+      <c r="E31" s="272"/>
       <c r="F31" s="135" t="s">
         <v>258</v>
       </c>
@@ -24409,10 +24406,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="284" t="s">
+      <c r="D32" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="285"/>
+      <c r="E32" s="286"/>
       <c r="F32" s="78" t="s">
         <v>174</v>
       </c>
@@ -24467,10 +24464,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>184</v>
       </c>
@@ -25048,10 +25045,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="78" t="s">
         <v>148</v>
       </c>
@@ -25081,10 +25078,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>221</v>
       </c>
@@ -25114,10 +25111,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>224</v>
       </c>
@@ -25212,7 +25209,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
       <c r="D66" s="270"/>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -25608,14 +25605,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D66:E66"/>
@@ -25625,6 +25614,14 @@
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -25638,8 +25635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -25721,15 +25718,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="282" t="s">
         <v>273</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -25742,15 +25739,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
+      <c r="C5" s="282" t="s">
         <v>274</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -25764,7 +25761,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>292</v>
+        <v>385</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -25784,15 +25781,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="282" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -25829,12 +25826,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -25897,19 +25894,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -25938,11 +25935,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -25951,7 +25948,7 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D15" s="137" t="s">
         <v>178</v>
@@ -25969,13 +25966,13 @@
         <v>45</v>
       </c>
       <c r="I15" s="184" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J15" s="287" t="s">
-        <v>283</v>
-      </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+        <v>281</v>
+      </c>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -26137,11 +26134,11 @@
     </row>
     <row r="25" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -26156,12 +26153,12 @@
     </row>
     <row r="26" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -26253,10 +26250,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -26286,10 +26283,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -26352,10 +26349,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="279" t="s">
+      <c r="D32" s="271" t="s">
         <v>202</v>
       </c>
-      <c r="E32" s="271"/>
+      <c r="E32" s="272"/>
       <c r="F32" s="135" t="s">
         <v>258</v>
       </c>
@@ -26385,10 +26382,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="284" t="s">
+      <c r="D33" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="285"/>
+      <c r="E33" s="286"/>
       <c r="F33" s="78" t="s">
         <v>174</v>
       </c>
@@ -26443,10 +26440,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E35" s="271"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="78" t="s">
         <v>184</v>
       </c>
@@ -27024,10 +27021,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="271"/>
+      <c r="E62" s="272"/>
       <c r="F62" s="78" t="s">
         <v>148</v>
       </c>
@@ -27057,10 +27054,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="281" t="s">
+      <c r="D63" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>221</v>
       </c>
@@ -27090,10 +27087,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="283" t="s">
+      <c r="D64" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="282"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="135" t="s">
         <v>224</v>
       </c>
@@ -27188,7 +27185,7 @@
       <c r="B67" s="97"/>
       <c r="C67" s="98"/>
       <c r="D67" s="270"/>
-      <c r="E67" s="271"/>
+      <c r="E67" s="272"/>
       <c r="F67" s="78"/>
       <c r="G67" s="80"/>
       <c r="H67" s="80"/>
@@ -27584,6 +27581,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
@@ -27593,15 +27599,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -27616,8 +27613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L76" sqref="L76"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -27659,7 +27656,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -27699,15 +27696,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -27720,15 +27717,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>284</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -27742,7 +27739,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -27762,15 +27759,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="282" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -27807,12 +27804,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -27875,19 +27872,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -27916,11 +27913,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -27985,8 +27982,8 @@
       <c r="J16" s="270" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="279"/>
-      <c r="L16" s="271"/>
+      <c r="K16" s="271"/>
+      <c r="L16" s="272"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -28131,11 +28128,11 @@
     </row>
     <row r="25" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -28150,12 +28147,12 @@
     </row>
     <row r="26" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -28247,10 +28244,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -28280,10 +28277,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -28346,10 +28343,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="284" t="s">
+      <c r="D32" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="E32" s="285"/>
+      <c r="E32" s="286"/>
       <c r="F32" s="78" t="s">
         <v>174</v>
       </c>
@@ -28379,10 +28376,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="78" t="s">
         <v>184</v>
       </c>
@@ -28960,10 +28957,10 @@
       <c r="A60" s="66"/>
       <c r="B60" s="91"/>
       <c r="C60" s="96"/>
-      <c r="D60" s="281" t="s">
+      <c r="D60" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E60" s="271"/>
+      <c r="E60" s="272"/>
       <c r="F60" s="78" t="s">
         <v>148</v>
       </c>
@@ -28993,10 +28990,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="282"/>
+      <c r="E61" s="283"/>
       <c r="F61" s="135" t="s">
         <v>221</v>
       </c>
@@ -29026,10 +29023,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="283" t="s">
+      <c r="D62" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>224</v>
       </c>
@@ -29124,7 +29121,7 @@
       <c r="B65" s="97"/>
       <c r="C65" s="98"/>
       <c r="D65" s="270"/>
-      <c r="E65" s="271"/>
+      <c r="E65" s="272"/>
       <c r="F65" s="78"/>
       <c r="G65" s="80"/>
       <c r="H65" s="80"/>
@@ -29520,6 +29517,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -29532,11 +29534,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D65:E65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -29593,7 +29590,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -29633,15 +29630,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>306</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -29654,15 +29651,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>307</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -29676,7 +29673,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -29699,12 +29696,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -29741,12 +29738,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -29809,19 +29806,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -29850,11 +29847,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -29877,13 +29874,13 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -29892,10 +29889,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="135" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>143</v>
@@ -29908,13 +29905,13 @@
         <v>250</v>
       </c>
       <c r="I16" s="184" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J16" s="287" t="s">
-        <v>313</v>
-      </c>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
+        <v>304</v>
+      </c>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -29929,7 +29926,7 @@
         <v>221</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
@@ -29937,10 +29934,10 @@
         <v>1000</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -29969,7 +29966,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -29981,10 +29978,10 @@
       <c r="A19" s="66"/>
       <c r="B19" s="77"/>
       <c r="C19" s="193" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D19" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E19" s="195" t="s">
         <v>249</v>
@@ -29994,7 +29991,7 @@
       <c r="H19" s="196"/>
       <c r="I19" s="185"/>
       <c r="J19" s="161" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K19" s="197"/>
       <c r="L19" s="198"/>
@@ -30005,10 +30002,10 @@
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="82"/>
       <c r="C20" s="186" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D20" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E20" s="187" t="s">
         <v>249</v>
@@ -30022,7 +30019,7 @@
         <v>42029</v>
       </c>
       <c r="J20" s="186" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K20" s="188"/>
       <c r="L20" s="188"/>
@@ -30184,11 +30181,11 @@
     </row>
     <row r="30" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="280" t="s">
+      <c r="B30" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="280"/>
-      <c r="D30" s="280"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="86"/>
       <c r="F30" s="87"/>
       <c r="G30" s="86"/>
@@ -30204,12 +30201,12 @@
     </row>
     <row r="31" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="89"/>
-      <c r="B31" s="275" t="s">
+      <c r="B31" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="276"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="277"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="279"/>
       <c r="F31" s="164" t="s">
         <v>132</v>
       </c>
@@ -30304,10 +30301,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>148</v>
       </c>
@@ -30338,10 +30335,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="98"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="271"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="78" t="s">
         <v>200</v>
       </c>
@@ -30406,7 +30403,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -30428,10 +30425,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="281" t="s">
+      <c r="D38" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="E38" s="282"/>
+      <c r="E38" s="283"/>
       <c r="F38" s="137" t="s">
         <v>204</v>
       </c>
@@ -30461,12 +30458,12 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="96"/>
-      <c r="D39" s="281" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="282"/>
+      <c r="D39" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39" s="283"/>
       <c r="F39" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G39" s="80" t="s">
         <v>175</v>
@@ -30484,7 +30481,7 @@
         <v>140</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -30494,10 +30491,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
-      <c r="D40" s="281" t="s">
+      <c r="D40" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="282"/>
+      <c r="E40" s="283"/>
       <c r="F40" s="137" t="s">
         <v>221</v>
       </c>
@@ -30509,7 +30506,7 @@
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
       <c r="L40" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -30519,10 +30516,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="281" t="s">
+      <c r="D41" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="282"/>
+      <c r="E41" s="283"/>
       <c r="F41" s="137" t="s">
         <v>251</v>
       </c>
@@ -30542,7 +30539,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -30552,12 +30549,12 @@
       <c r="A42" s="66"/>
       <c r="B42" s="91"/>
       <c r="C42" s="96"/>
-      <c r="D42" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E42" s="282"/>
+      <c r="D42" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="283"/>
       <c r="F42" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>175</v>
@@ -30573,7 +30570,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -30584,11 +30581,11 @@
       <c r="B43" s="97"/>
       <c r="C43" s="98"/>
       <c r="D43" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E43" s="290"/>
       <c r="F43" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G43" s="136" t="s">
         <v>249</v>
@@ -30602,7 +30599,7 @@
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
       <c r="L43" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -31036,10 +31033,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="91"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="281" t="s">
+      <c r="D66" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78" t="s">
         <v>148</v>
       </c>
@@ -31069,10 +31066,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="281" t="s">
+      <c r="D67" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="282"/>
+      <c r="E67" s="283"/>
       <c r="F67" s="135" t="s">
         <v>221</v>
       </c>
@@ -31102,10 +31099,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="283" t="s">
+      <c r="D68" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="282"/>
+      <c r="E68" s="283"/>
       <c r="F68" s="135" t="s">
         <v>224</v>
       </c>
@@ -31200,7 +31197,7 @@
       <c r="B71" s="97"/>
       <c r="C71" s="98"/>
       <c r="D71" s="270"/>
-      <c r="E71" s="271"/>
+      <c r="E71" s="272"/>
       <c r="F71" s="78"/>
       <c r="G71" s="80"/>
       <c r="H71" s="80"/>
@@ -31596,6 +31593,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="B30:D30"/>
@@ -31606,18 +31615,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D66:E66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -31675,7 +31672,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -31715,15 +31712,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="F4" s="293"/>
-      <c r="G4" s="293"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="282"/>
+      <c r="C4" s="282" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="292"/>
+      <c r="H4" s="292"/>
+      <c r="I4" s="283"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -31736,15 +31733,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="282"/>
+      <c r="C5" s="282" t="s">
+        <v>316</v>
+      </c>
+      <c r="D5" s="292"/>
+      <c r="E5" s="292"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
+      <c r="H5" s="292"/>
+      <c r="I5" s="283"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -31758,7 +31755,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -31781,12 +31778,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -31823,12 +31820,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -31891,19 +31888,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -31932,11 +31929,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="275" t="s">
+      <c r="J14" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="276"/>
-      <c r="L14" s="277"/>
+      <c r="K14" s="278"/>
+      <c r="L14" s="279"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -31962,7 +31959,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="159" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K15" s="158"/>
       <c r="L15" s="153"/>
@@ -32127,11 +32124,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="292" t="s">
+      <c r="B25" s="291" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="292"/>
-      <c r="D25" s="292"/>
+      <c r="C25" s="291"/>
+      <c r="D25" s="291"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -32147,12 +32144,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -32250,7 +32247,7 @@
       <c r="D29" s="270" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -32284,7 +32281,7 @@
       <c r="D30" s="270" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -32349,7 +32346,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -32371,10 +32368,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="281" t="s">
+      <c r="D33" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="282"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="137" t="s">
         <v>204</v>
       </c>
@@ -32404,12 +32401,12 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="281" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="282"/>
+      <c r="D34" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="283"/>
       <c r="F34" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>175</v>
@@ -32427,7 +32424,7 @@
         <v>140</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -32437,10 +32434,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="137" t="s">
         <v>221</v>
       </c>
@@ -32452,7 +32449,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -32462,10 +32459,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="282"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="137" t="s">
         <v>251</v>
       </c>
@@ -32485,7 +32482,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -32495,12 +32492,12 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E37" s="282"/>
+      <c r="D37" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -32516,7 +32513,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -32527,11 +32524,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -32545,7 +32542,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -33047,10 +33044,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="281" t="s">
+      <c r="D65" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="282"/>
+      <c r="E65" s="283"/>
       <c r="F65" s="78" t="s">
         <v>148</v>
       </c>
@@ -33080,10 +33077,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="91"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="281" t="s">
+      <c r="D66" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="282"/>
+      <c r="E66" s="283"/>
       <c r="F66" s="135" t="s">
         <v>221</v>
       </c>
@@ -33113,10 +33110,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="283" t="s">
+      <c r="D67" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E67" s="291"/>
+      <c r="E67" s="293"/>
       <c r="F67" s="135" t="s">
         <v>224</v>
       </c>
@@ -33211,7 +33208,7 @@
       <c r="B70" s="97"/>
       <c r="C70" s="98"/>
       <c r="D70" s="270"/>
-      <c r="E70" s="271"/>
+      <c r="E70" s="272"/>
       <c r="F70" s="78"/>
       <c r="G70" s="80"/>
       <c r="H70" s="80"/>
@@ -33607,6 +33604,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
@@ -33617,16 +33624,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33680,7 +33677,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -33720,15 +33717,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -33741,15 +33738,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -33763,7 +33760,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -33786,12 +33783,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -33828,12 +33825,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -33896,19 +33893,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -33937,11 +33934,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -33949,7 +33946,7 @@
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D15" s="137" t="s">
         <v>258</v>
@@ -33966,7 +33963,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -33989,7 +33986,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J16" s="138" t="s">
         <v>276</v>
@@ -34004,10 +34001,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="135" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>143</v>
@@ -34020,13 +34017,13 @@
         <v>250</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J17" s="287" t="s">
-        <v>313</v>
-      </c>
-      <c r="K17" s="278"/>
-      <c r="L17" s="278"/>
+        <v>304</v>
+      </c>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -34041,7 +34038,7 @@
         <v>221</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
@@ -34049,10 +34046,10 @@
         <v>1000</v>
       </c>
       <c r="I18" s="184" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -34081,7 +34078,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="159" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K19" s="158"/>
       <c r="L19" s="153"/>
@@ -34093,10 +34090,10 @@
       <c r="A20" s="66"/>
       <c r="B20" s="77"/>
       <c r="C20" s="193" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D20" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E20" s="195" t="s">
         <v>249</v>
@@ -34110,7 +34107,7 @@
         <v>42061</v>
       </c>
       <c r="J20" s="161" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K20" s="197"/>
       <c r="L20" s="198"/>
@@ -34121,10 +34118,10 @@
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="82"/>
       <c r="C21" s="186" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D21" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E21" s="187" t="s">
         <v>249</v>
@@ -34138,7 +34135,7 @@
         <v>42029</v>
       </c>
       <c r="J21" s="186" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K21" s="188"/>
       <c r="L21" s="188"/>
@@ -34300,11 +34297,11 @@
     </row>
     <row r="31" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="280" t="s">
+      <c r="B31" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="86"/>
       <c r="F31" s="87"/>
       <c r="G31" s="86"/>
@@ -34320,12 +34317,12 @@
     </row>
     <row r="32" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="89"/>
-      <c r="B32" s="275" t="s">
+      <c r="B32" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="276"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="277"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
       <c r="F32" s="164" t="s">
         <v>132</v>
       </c>
@@ -34420,10 +34417,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="271"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="78" t="s">
         <v>148</v>
       </c>
@@ -34454,10 +34451,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="279" t="s">
+      <c r="D36" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="271"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="78" t="s">
         <v>200</v>
       </c>
@@ -34522,7 +34519,7 @@
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
       <c r="D38" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E38" s="93"/>
       <c r="F38" s="135" t="s">
@@ -34544,10 +34541,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="96"/>
-      <c r="D39" s="281" t="s">
+      <c r="D39" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="E39" s="282"/>
+      <c r="E39" s="283"/>
       <c r="F39" s="137" t="s">
         <v>204</v>
       </c>
@@ -34577,12 +34574,12 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
-      <c r="D40" s="281" t="s">
-        <v>310</v>
-      </c>
-      <c r="E40" s="282"/>
+      <c r="D40" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E40" s="283"/>
       <c r="F40" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G40" s="80" t="s">
         <v>175</v>
@@ -34600,7 +34597,7 @@
         <v>140</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -34610,10 +34607,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="281" t="s">
+      <c r="D41" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="282"/>
+      <c r="E41" s="283"/>
       <c r="F41" s="137" t="s">
         <v>221</v>
       </c>
@@ -34625,7 +34622,7 @@
       <c r="J41" s="80"/>
       <c r="K41" s="80"/>
       <c r="L41" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -34635,10 +34632,10 @@
       <c r="A42" s="66"/>
       <c r="B42" s="91"/>
       <c r="C42" s="96"/>
-      <c r="D42" s="281" t="s">
+      <c r="D42" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E42" s="282"/>
+      <c r="E42" s="283"/>
       <c r="F42" s="137" t="s">
         <v>251</v>
       </c>
@@ -34658,7 +34655,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -34668,12 +34665,12 @@
       <c r="A43" s="66"/>
       <c r="B43" s="91"/>
       <c r="C43" s="96"/>
-      <c r="D43" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E43" s="282"/>
+      <c r="D43" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E43" s="283"/>
       <c r="F43" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G43" s="80" t="s">
         <v>175</v>
@@ -34689,7 +34686,7 @@
         <v>140</v>
       </c>
       <c r="L43" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -34700,11 +34697,11 @@
       <c r="B44" s="97"/>
       <c r="C44" s="98"/>
       <c r="D44" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E44" s="290"/>
       <c r="F44" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G44" s="136" t="s">
         <v>249</v>
@@ -34718,7 +34715,7 @@
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
       <c r="L44" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
@@ -35271,10 +35268,10 @@
       <c r="A74" s="66"/>
       <c r="B74" s="91"/>
       <c r="C74" s="96"/>
-      <c r="D74" s="281" t="s">
+      <c r="D74" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E74" s="271"/>
+      <c r="E74" s="272"/>
       <c r="F74" s="78" t="s">
         <v>148</v>
       </c>
@@ -35304,10 +35301,10 @@
       <c r="A75" s="66"/>
       <c r="B75" s="91"/>
       <c r="C75" s="96"/>
-      <c r="D75" s="281" t="s">
+      <c r="D75" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="282"/>
+      <c r="E75" s="283"/>
       <c r="F75" s="135" t="s">
         <v>221</v>
       </c>
@@ -35337,10 +35334,10 @@
       <c r="A76" s="66"/>
       <c r="B76" s="91"/>
       <c r="C76" s="96"/>
-      <c r="D76" s="283" t="s">
+      <c r="D76" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E76" s="282"/>
+      <c r="E76" s="283"/>
       <c r="F76" s="135" t="s">
         <v>224</v>
       </c>
@@ -35435,7 +35432,7 @@
       <c r="B79" s="97"/>
       <c r="C79" s="98"/>
       <c r="D79" s="270"/>
-      <c r="E79" s="271"/>
+      <c r="E79" s="272"/>
       <c r="F79" s="78"/>
       <c r="G79" s="80"/>
       <c r="H79" s="80"/>
@@ -35832,17 +35829,6 @@
     <row r="103" spans="1:15" ht="94.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
@@ -35853,6 +35839,17 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I16" r:id="rId1" display="foo@mulodo.com"/>
@@ -35910,7 +35907,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -35950,15 +35947,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>333</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -35971,15 +35968,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -35993,7 +35990,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -36016,12 +36013,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -36058,12 +36055,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -36126,19 +36123,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -36167,11 +36164,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -36179,7 +36176,7 @@
     <row r="15" spans="1:15" ht="15">
       <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D15" s="137" t="s">
         <v>258</v>
@@ -36196,7 +36193,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -36358,11 +36355,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -36378,12 +36375,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -36478,10 +36475,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -36512,10 +36509,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -37122,10 +37119,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="78" t="s">
         <v>148</v>
       </c>
@@ -37155,10 +37152,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>221</v>
       </c>
@@ -37188,10 +37185,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>224</v>
       </c>
@@ -37286,7 +37283,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
       <c r="D66" s="270"/>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -37683,12 +37680,6 @@
     <row r="90" spans="1:15" ht="15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D66:E66"/>
@@ -37697,6 +37688,12 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -37750,7 +37747,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -37790,15 +37787,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -37811,15 +37808,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -37833,7 +37830,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -37853,15 +37850,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -37898,12 +37895,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -37966,19 +37963,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -38007,11 +38004,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -38173,11 +38170,11 @@
     </row>
     <row r="24" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="69"/>
-      <c r="B24" s="280" t="s">
+      <c r="B24" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="280"/>
-      <c r="D24" s="280"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="86"/>
       <c r="F24" s="87"/>
       <c r="G24" s="86"/>
@@ -38193,12 +38190,12 @@
     </row>
     <row r="25" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="89"/>
-      <c r="B25" s="275" t="s">
+      <c r="B25" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="276"/>
-      <c r="D25" s="276"/>
-      <c r="E25" s="277"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="279"/>
       <c r="F25" s="164" t="s">
         <v>132</v>
       </c>
@@ -38293,10 +38290,10 @@
       <c r="A28" s="66"/>
       <c r="B28" s="91"/>
       <c r="C28" s="96"/>
-      <c r="D28" s="279" t="s">
+      <c r="D28" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="271"/>
+      <c r="E28" s="272"/>
       <c r="F28" s="78" t="s">
         <v>148</v>
       </c>
@@ -38327,10 +38324,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="98"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>200</v>
       </c>
@@ -38395,7 +38392,7 @@
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
       <c r="D31" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E31" s="93"/>
       <c r="F31" s="135" t="s">
@@ -38417,10 +38414,10 @@
       <c r="A32" s="66"/>
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
-      <c r="D32" s="281" t="s">
+      <c r="D32" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="E32" s="282"/>
+      <c r="E32" s="283"/>
       <c r="F32" s="137" t="s">
         <v>204</v>
       </c>
@@ -38450,12 +38447,12 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="281" t="s">
-        <v>310</v>
-      </c>
-      <c r="E33" s="282"/>
+      <c r="D33" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E33" s="283"/>
       <c r="F33" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G33" s="80" t="s">
         <v>175</v>
@@ -38473,7 +38470,7 @@
         <v>140</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -38483,10 +38480,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="281" t="s">
+      <c r="D34" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="282"/>
+      <c r="E34" s="283"/>
       <c r="F34" s="137" t="s">
         <v>221</v>
       </c>
@@ -38498,7 +38495,7 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -38508,10 +38505,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="137" t="s">
         <v>251</v>
       </c>
@@ -38531,7 +38528,7 @@
         <v>140</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -38541,12 +38538,12 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="282"/>
+      <c r="D36" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E36" s="283"/>
       <c r="F36" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G36" s="80" t="s">
         <v>175</v>
@@ -38562,7 +38559,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -38573,11 +38570,11 @@
       <c r="B37" s="97"/>
       <c r="C37" s="98"/>
       <c r="D37" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E37" s="290"/>
       <c r="F37" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G37" s="136" t="s">
         <v>249</v>
@@ -38591,7 +38588,7 @@
       <c r="J37" s="80"/>
       <c r="K37" s="80"/>
       <c r="L37" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -39144,10 +39141,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="281" t="s">
+      <c r="D67" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="271"/>
+      <c r="E67" s="272"/>
       <c r="F67" s="78" t="s">
         <v>148</v>
       </c>
@@ -39177,10 +39174,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="281" t="s">
+      <c r="D68" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="282"/>
+      <c r="E68" s="283"/>
       <c r="F68" s="135" t="s">
         <v>221</v>
       </c>
@@ -39210,10 +39207,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="91"/>
       <c r="C69" s="96"/>
-      <c r="D69" s="283" t="s">
+      <c r="D69" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E69" s="282"/>
+      <c r="E69" s="283"/>
       <c r="F69" s="135" t="s">
         <v>224</v>
       </c>
@@ -39308,7 +39305,7 @@
       <c r="B72" s="97"/>
       <c r="C72" s="98"/>
       <c r="D72" s="270"/>
-      <c r="E72" s="271"/>
+      <c r="E72" s="272"/>
       <c r="F72" s="78"/>
       <c r="G72" s="80"/>
       <c r="H72" s="80"/>
@@ -39705,17 +39702,6 @@
     <row r="96" spans="1:15" ht="15"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="D72:E72"/>
@@ -39725,6 +39711,17 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -39781,7 +39778,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -39821,15 +39818,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -39842,15 +39839,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>329</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -39864,7 +39861,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -39884,15 +39881,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -39929,12 +39926,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -39997,19 +39994,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -40038,11 +40035,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -40065,7 +40062,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="138" t="s">
         <v>276</v>
@@ -40233,11 +40230,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -40253,12 +40250,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -40353,10 +40350,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -40387,10 +40384,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -40455,7 +40452,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -40477,10 +40474,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="281" t="s">
+      <c r="D33" s="282" t="s">
         <v>275</v>
       </c>
-      <c r="E33" s="282"/>
+      <c r="E33" s="283"/>
       <c r="F33" s="137" t="s">
         <v>204</v>
       </c>
@@ -40510,12 +40507,12 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="281" t="s">
-        <v>310</v>
-      </c>
-      <c r="E34" s="282"/>
+      <c r="D34" s="282" t="s">
+        <v>301</v>
+      </c>
+      <c r="E34" s="283"/>
       <c r="F34" s="137" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>175</v>
@@ -40533,7 +40530,7 @@
         <v>140</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -40543,10 +40540,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="137" t="s">
         <v>221</v>
       </c>
@@ -40558,7 +40555,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -40568,10 +40565,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="282"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="137" t="s">
         <v>251</v>
       </c>
@@ -40591,7 +40588,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -40601,12 +40598,12 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E37" s="282"/>
+      <c r="D37" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -40622,7 +40619,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -40633,11 +40630,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -40651,7 +40648,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -41204,10 +41201,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="281" t="s">
+      <c r="D68" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="271"/>
+      <c r="E68" s="272"/>
       <c r="F68" s="78" t="s">
         <v>148</v>
       </c>
@@ -41237,10 +41234,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="91"/>
       <c r="C69" s="96"/>
-      <c r="D69" s="281" t="s">
+      <c r="D69" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="282"/>
+      <c r="E69" s="283"/>
       <c r="F69" s="135" t="s">
         <v>221</v>
       </c>
@@ -41270,10 +41267,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="91"/>
       <c r="C70" s="96"/>
-      <c r="D70" s="283" t="s">
+      <c r="D70" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E70" s="282"/>
+      <c r="E70" s="283"/>
       <c r="F70" s="135" t="s">
         <v>224</v>
       </c>
@@ -41368,7 +41365,7 @@
       <c r="B73" s="97"/>
       <c r="C73" s="98"/>
       <c r="D73" s="270"/>
-      <c r="E73" s="271"/>
+      <c r="E73" s="272"/>
       <c r="F73" s="78"/>
       <c r="G73" s="80"/>
       <c r="H73" s="80"/>
@@ -41765,6 +41762,14 @@
     <row r="97" ht="15"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -41777,14 +41782,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -41842,7 +41839,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -41882,15 +41879,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>341</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -41903,15 +41900,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -41925,7 +41922,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -41945,15 +41942,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -41990,12 +41987,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -42058,19 +42055,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -42099,11 +42096,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -42115,7 +42112,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -42126,13 +42123,13 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -42141,10 +42138,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="135" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>252</v>
@@ -42155,10 +42152,10 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J16" s="289" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K16" s="294"/>
       <c r="L16" s="295"/>
@@ -42176,7 +42173,7 @@
         <v>221</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F17" s="80" t="s">
         <v>193</v>
@@ -42186,10 +42183,10 @@
         <v>1000</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -42218,7 +42215,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -42230,10 +42227,10 @@
       <c r="A19" s="66"/>
       <c r="B19" s="77"/>
       <c r="C19" s="193" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D19" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E19" s="195" t="s">
         <v>249</v>
@@ -42243,7 +42240,7 @@
       <c r="H19" s="196"/>
       <c r="I19" s="185"/>
       <c r="J19" s="161" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="K19" s="197"/>
       <c r="L19" s="198"/>
@@ -42254,10 +42251,10 @@
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="82"/>
       <c r="C20" s="186" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D20" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E20" s="187" t="s">
         <v>249</v>
@@ -42271,7 +42268,7 @@
         <v>42029</v>
       </c>
       <c r="J20" s="186" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K20" s="188"/>
       <c r="L20" s="188"/>
@@ -42433,11 +42430,11 @@
     </row>
     <row r="30" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="69"/>
-      <c r="B30" s="280" t="s">
+      <c r="B30" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C30" s="280"/>
-      <c r="D30" s="280"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="86"/>
       <c r="F30" s="87"/>
       <c r="G30" s="86"/>
@@ -42453,12 +42450,12 @@
     </row>
     <row r="31" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="89"/>
-      <c r="B31" s="275" t="s">
+      <c r="B31" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C31" s="276"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="277"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="279"/>
       <c r="F31" s="164" t="s">
         <v>132</v>
       </c>
@@ -42553,10 +42550,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>148</v>
       </c>
@@ -42587,10 +42584,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="98"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E35" s="271"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="78" t="s">
         <v>200</v>
       </c>
@@ -42655,7 +42652,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -42682,7 +42679,7 @@
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
       <c r="D38" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E38" s="93"/>
       <c r="F38" s="135" t="s">
@@ -42741,10 +42738,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
-      <c r="D40" s="281" t="s">
+      <c r="D40" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E40" s="282"/>
+      <c r="E40" s="283"/>
       <c r="F40" s="137" t="s">
         <v>221</v>
       </c>
@@ -42760,7 +42757,7 @@
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
       <c r="L40" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -42770,10 +42767,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="281" t="s">
+      <c r="D41" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E41" s="282"/>
+      <c r="E41" s="283"/>
       <c r="F41" s="137" t="s">
         <v>251</v>
       </c>
@@ -42793,7 +42790,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -42803,12 +42800,12 @@
       <c r="A42" s="66"/>
       <c r="B42" s="91"/>
       <c r="C42" s="96"/>
-      <c r="D42" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E42" s="282"/>
+      <c r="D42" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E42" s="283"/>
       <c r="F42" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>175</v>
@@ -42822,7 +42819,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -42833,11 +42830,11 @@
       <c r="B43" s="97"/>
       <c r="C43" s="98"/>
       <c r="D43" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E43" s="290"/>
       <c r="F43" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G43" s="136" t="s">
         <v>249</v>
@@ -42851,7 +42848,7 @@
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
       <c r="L43" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -43285,10 +43282,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="91"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="281" t="s">
+      <c r="D66" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78" t="s">
         <v>148</v>
       </c>
@@ -43318,10 +43315,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="281" t="s">
+      <c r="D67" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E67" s="282"/>
+      <c r="E67" s="283"/>
       <c r="F67" s="135" t="s">
         <v>221</v>
       </c>
@@ -43351,10 +43348,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="283" t="s">
+      <c r="D68" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E68" s="282"/>
+      <c r="E68" s="283"/>
       <c r="F68" s="135" t="s">
         <v>224</v>
       </c>
@@ -43449,7 +43446,7 @@
       <c r="B71" s="97"/>
       <c r="C71" s="98"/>
       <c r="D71" s="270"/>
-      <c r="E71" s="271"/>
+      <c r="E71" s="272"/>
       <c r="F71" s="78"/>
       <c r="G71" s="80"/>
       <c r="H71" s="80"/>
@@ -43845,17 +43842,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
@@ -43865,6 +43851,17 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -44520,7 +44517,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -44560,15 +44557,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -44581,15 +44578,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -44603,7 +44600,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -44623,15 +44620,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="282" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -44668,12 +44665,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -44736,19 +44733,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -44777,11 +44774,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -44804,13 +44801,13 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
       </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -44825,7 +44822,7 @@
         <v>221</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>193</v>
@@ -44835,10 +44832,10 @@
         <v>1000</v>
       </c>
       <c r="I16" s="184" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="J16" s="159" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K16" s="158"/>
       <c r="L16" s="153"/>
@@ -44867,7 +44864,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -44879,10 +44876,10 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="193" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D18" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E18" s="195" t="s">
         <v>249</v>
@@ -44896,7 +44893,7 @@
         <v>42030</v>
       </c>
       <c r="J18" s="161" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="K18" s="197"/>
       <c r="L18" s="198"/>
@@ -44907,10 +44904,10 @@
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="82"/>
       <c r="C19" s="186" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D19" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E19" s="187" t="s">
         <v>249</v>
@@ -44924,7 +44921,7 @@
         <v>42029</v>
       </c>
       <c r="J19" s="186" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K19" s="188"/>
       <c r="L19" s="188"/>
@@ -45086,11 +45083,11 @@
     </row>
     <row r="29" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -45106,12 +45103,12 @@
     </row>
     <row r="30" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="277"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
       <c r="F30" s="164" t="s">
         <v>132</v>
       </c>
@@ -45206,10 +45203,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -45240,10 +45237,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>200</v>
       </c>
@@ -45308,7 +45305,7 @@
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
       <c r="D36" s="199" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E36" s="93"/>
       <c r="F36" s="135" t="s">
@@ -45335,7 +45332,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -45394,10 +45391,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="96"/>
-      <c r="D39" s="281" t="s">
+      <c r="D39" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="282"/>
+      <c r="E39" s="283"/>
       <c r="F39" s="137" t="s">
         <v>221</v>
       </c>
@@ -45413,7 +45410,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="80"/>
       <c r="L39" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -45423,10 +45420,10 @@
       <c r="A40" s="66"/>
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
-      <c r="D40" s="281" t="s">
+      <c r="D40" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E40" s="282"/>
+      <c r="E40" s="283"/>
       <c r="F40" s="137" t="s">
         <v>251</v>
       </c>
@@ -45446,7 +45443,7 @@
         <v>140</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -45456,12 +45453,12 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E41" s="282"/>
+      <c r="D41" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E41" s="283"/>
       <c r="F41" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>175</v>
@@ -45475,7 +45472,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -45486,11 +45483,11 @@
       <c r="B42" s="97"/>
       <c r="C42" s="98"/>
       <c r="D42" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E42" s="290"/>
       <c r="F42" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G42" s="136" t="s">
         <v>249</v>
@@ -45504,7 +45501,7 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -45938,10 +45935,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="281" t="s">
+      <c r="D65" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="271"/>
+      <c r="E65" s="272"/>
       <c r="F65" s="78" t="s">
         <v>148</v>
       </c>
@@ -45971,10 +45968,10 @@
       <c r="A66" s="66"/>
       <c r="B66" s="91"/>
       <c r="C66" s="96"/>
-      <c r="D66" s="281" t="s">
+      <c r="D66" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="282"/>
+      <c r="E66" s="283"/>
       <c r="F66" s="135" t="s">
         <v>221</v>
       </c>
@@ -46004,10 +46001,10 @@
       <c r="A67" s="66"/>
       <c r="B67" s="91"/>
       <c r="C67" s="96"/>
-      <c r="D67" s="283" t="s">
+      <c r="D67" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E67" s="282"/>
+      <c r="E67" s="283"/>
       <c r="F67" s="135" t="s">
         <v>224</v>
       </c>
@@ -46102,7 +46099,7 @@
       <c r="B70" s="97"/>
       <c r="C70" s="98"/>
       <c r="D70" s="270"/>
-      <c r="E70" s="271"/>
+      <c r="E70" s="272"/>
       <c r="F70" s="78"/>
       <c r="G70" s="80"/>
       <c r="H70" s="80"/>
@@ -46498,17 +46495,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D70:E70"/>
     <mergeCell ref="D39:E39"/>
@@ -46517,6 +46503,17 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -46574,7 +46571,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -46614,15 +46611,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>355</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -46635,15 +46632,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>364</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -46657,7 +46654,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -46677,15 +46674,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
-        <v>334</v>
-      </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="282" t="s">
+        <v>325</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -46722,12 +46719,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -46790,19 +46787,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -46831,11 +46828,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -46860,7 +46857,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -47022,11 +47019,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -47042,12 +47039,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -47142,10 +47139,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -47176,10 +47173,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -47786,10 +47783,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="78" t="s">
         <v>148</v>
       </c>
@@ -47819,10 +47816,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>221</v>
       </c>
@@ -47852,10 +47849,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>224</v>
       </c>
@@ -47950,7 +47947,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
       <c r="D66" s="270"/>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -48347,12 +48344,6 @@
     <row r="90" spans="1:15" ht="15"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B25:D25"/>
@@ -48361,6 +48352,12 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48414,7 +48411,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -48454,15 +48451,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -48475,15 +48472,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -48497,7 +48494,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -48517,15 +48514,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -48562,12 +48559,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -48630,19 +48627,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -48671,11 +48668,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -48684,10 +48681,10 @@
       <c r="A15" s="66"/>
       <c r="B15" s="82"/>
       <c r="C15" s="135" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -48698,10 +48695,10 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="289" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K15" s="294"/>
       <c r="L15" s="295"/>
@@ -48866,11 +48863,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -48886,12 +48883,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -48986,10 +48983,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -49020,10 +49017,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -49088,7 +49085,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -49115,7 +49112,7 @@
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
       <c r="D33" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="135" t="s">
@@ -49174,10 +49171,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="137" t="s">
         <v>221</v>
       </c>
@@ -49193,7 +49190,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -49203,10 +49200,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="282"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="137" t="s">
         <v>251</v>
       </c>
@@ -49226,7 +49223,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -49236,12 +49233,12 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E37" s="282"/>
+      <c r="D37" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -49255,7 +49252,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -49266,11 +49263,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -49284,7 +49281,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -49718,10 +49715,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="78" t="s">
         <v>148</v>
       </c>
@@ -49751,10 +49748,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>221</v>
       </c>
@@ -49784,10 +49781,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>224</v>
       </c>
@@ -49882,7 +49879,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
       <c r="D66" s="270"/>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -50278,17 +50275,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D35:E35"/>
@@ -50297,6 +50283,17 @@
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D61:E61"/>
     <mergeCell ref="D62:E62"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -50353,7 +50350,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -50393,15 +50390,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
-        <v>368</v>
-      </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="C4" s="282" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -50414,15 +50411,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="C5" s="282" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -50436,7 +50433,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -50456,15 +50453,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="282" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -50501,12 +50498,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -50569,19 +50566,19 @@
     </row>
     <row r="13" spans="1:15" ht="15.75">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -50610,11 +50607,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -50626,7 +50623,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -50637,7 +50634,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="J15" s="289" t="s">
         <v>276</v>
@@ -50805,11 +50802,11 @@
     </row>
     <row r="25" spans="1:16" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="69"/>
-      <c r="B25" s="280" t="s">
+      <c r="B25" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="86"/>
       <c r="F25" s="87"/>
       <c r="G25" s="86"/>
@@ -50825,12 +50822,12 @@
     </row>
     <row r="26" spans="1:16" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="89"/>
-      <c r="B26" s="275" t="s">
+      <c r="B26" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="276"/>
-      <c r="D26" s="276"/>
-      <c r="E26" s="277"/>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
       <c r="F26" s="164" t="s">
         <v>132</v>
       </c>
@@ -50925,10 +50922,10 @@
       <c r="A29" s="66"/>
       <c r="B29" s="91"/>
       <c r="C29" s="96"/>
-      <c r="D29" s="279" t="s">
+      <c r="D29" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="271"/>
+      <c r="E29" s="272"/>
       <c r="F29" s="78" t="s">
         <v>148</v>
       </c>
@@ -50959,10 +50956,10 @@
       <c r="A30" s="66"/>
       <c r="B30" s="91"/>
       <c r="C30" s="98"/>
-      <c r="D30" s="279" t="s">
+      <c r="D30" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E30" s="271"/>
+      <c r="E30" s="272"/>
       <c r="F30" s="78" t="s">
         <v>200</v>
       </c>
@@ -51027,7 +51024,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -51054,7 +51051,7 @@
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
       <c r="D33" s="199" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="135" t="s">
@@ -51113,10 +51110,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="281" t="s">
+      <c r="D35" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E35" s="282"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="137" t="s">
         <v>221</v>
       </c>
@@ -51132,7 +51129,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -51142,10 +51139,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="281" t="s">
+      <c r="D36" s="282" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="282"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="137" t="s">
         <v>251</v>
       </c>
@@ -51165,7 +51162,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -51175,12 +51172,12 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="281" t="s">
-        <v>320</v>
-      </c>
-      <c r="E37" s="282"/>
+      <c r="D37" s="282" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -51194,7 +51191,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -51205,11 +51202,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -51223,7 +51220,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -51657,10 +51654,10 @@
       <c r="A61" s="66"/>
       <c r="B61" s="91"/>
       <c r="C61" s="96"/>
-      <c r="D61" s="281" t="s">
+      <c r="D61" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="271"/>
+      <c r="E61" s="272"/>
       <c r="F61" s="78" t="s">
         <v>148</v>
       </c>
@@ -51690,10 +51687,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="282"/>
+      <c r="E62" s="283"/>
       <c r="F62" s="135" t="s">
         <v>221</v>
       </c>
@@ -51723,10 +51720,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="283" t="s">
+      <c r="D63" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>224</v>
       </c>
@@ -51821,7 +51818,7 @@
       <c r="B66" s="97"/>
       <c r="C66" s="98"/>
       <c r="D66" s="270"/>
-      <c r="E66" s="271"/>
+      <c r="E66" s="272"/>
       <c r="F66" s="78"/>
       <c r="G66" s="80"/>
       <c r="H66" s="80"/>
@@ -52217,6 +52214,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -52229,13 +52233,6 @@
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -52739,10 +52736,10 @@
       <c r="C4" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="255" t="s">
+      <c r="D4" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="255"/>
+      <c r="E4" s="254"/>
       <c r="F4" s="128" t="s">
         <v>216</v>
       </c>
@@ -52760,10 +52757,10 @@
       <c r="C5" s="132" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="254" t="s">
+      <c r="D5" s="255" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="254"/>
+      <c r="E5" s="255"/>
       <c r="F5" s="133" t="s">
         <v>219</v>
       </c>
@@ -52775,14 +52772,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="132" t="s">
-        <v>302</v>
-      </c>
-      <c r="D6" s="254" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="254"/>
+        <v>293</v>
+      </c>
+      <c r="D6" s="255" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="255"/>
       <c r="F6" s="151" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
@@ -52835,10 +52832,10 @@
       <c r="C10" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E10" s="255"/>
+      <c r="E10" s="254"/>
       <c r="F10" s="128" t="s">
         <v>216</v>
       </c>
@@ -52850,12 +52847,12 @@
       <c r="C11" s="167" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="259" t="s">
+      <c r="D11" s="257" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="259"/>
+      <c r="E11" s="257"/>
       <c r="F11" s="168" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="115"/>
@@ -52867,12 +52864,12 @@
       <c r="C12" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="258" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="258"/>
+      <c r="D12" s="256" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="256"/>
       <c r="F12" s="165" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G12" s="115"/>
       <c r="H12" s="115"/>
@@ -52944,10 +52941,10 @@
       <c r="C19" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="255" t="s">
+      <c r="D19" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E19" s="255"/>
+      <c r="E19" s="254"/>
       <c r="F19" s="128" t="s">
         <v>216</v>
       </c>
@@ -53045,10 +53042,10 @@
       <c r="C28" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="255" t="s">
+      <c r="D28" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E28" s="255"/>
+      <c r="E28" s="254"/>
       <c r="F28" s="128" t="s">
         <v>216</v>
       </c>
@@ -53060,8 +53057,8 @@
       <c r="C29" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="254"/>
-      <c r="E29" s="254"/>
+      <c r="D29" s="255"/>
+      <c r="E29" s="255"/>
       <c r="F29" s="134"/>
       <c r="G29" s="115"/>
       <c r="H29" s="115"/>
@@ -53183,10 +53180,10 @@
       <c r="C41" s="141" t="s">
         <v>215</v>
       </c>
-      <c r="D41" s="255" t="s">
+      <c r="D41" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E41" s="255"/>
+      <c r="E41" s="254"/>
       <c r="F41" s="141" t="s">
         <v>216</v>
       </c>
@@ -53257,10 +53254,10 @@
       <c r="C50" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D50" s="255" t="s">
+      <c r="D50" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E50" s="255"/>
+      <c r="E50" s="254"/>
       <c r="F50" s="128" t="s">
         <v>216</v>
       </c>
@@ -53355,10 +53352,10 @@
       <c r="C61" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="255" t="s">
+      <c r="D61" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="255"/>
+      <c r="E61" s="254"/>
       <c r="F61" s="128" t="s">
         <v>216</v>
       </c>
@@ -53370,8 +53367,8 @@
       <c r="C62" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D62" s="256"/>
-      <c r="E62" s="257"/>
+      <c r="D62" s="258"/>
+      <c r="E62" s="259"/>
       <c r="F62" s="130"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
@@ -53381,8 +53378,8 @@
       <c r="C63" s="117" t="s">
         <v>104</v>
       </c>
-      <c r="D63" s="256"/>
-      <c r="E63" s="257"/>
+      <c r="D63" s="258"/>
+      <c r="E63" s="259"/>
       <c r="F63" s="130"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
@@ -53392,8 +53389,8 @@
       <c r="C64" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="D64" s="256"/>
-      <c r="E64" s="257"/>
+      <c r="D64" s="258"/>
+      <c r="E64" s="259"/>
       <c r="F64" s="130"/>
     </row>
     <row r="65" spans="2:6" ht="15" customHeight="1">
@@ -53403,8 +53400,8 @@
       <c r="C65" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="D65" s="256"/>
-      <c r="E65" s="257"/>
+      <c r="D65" s="258"/>
+      <c r="E65" s="259"/>
       <c r="F65" s="130"/>
     </row>
     <row r="66" spans="2:6">
@@ -53414,12 +53411,43 @@
       <c r="C66" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="D66" s="256"/>
-      <c r="E66" s="257"/>
+      <c r="D66" s="258"/>
+      <c r="E66" s="259"/>
       <c r="F66" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
@@ -53436,37 +53464,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -53483,8 +53480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="B37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -53572,10 +53569,10 @@
         <v>166</v>
       </c>
       <c r="F5" s="177" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G5" s="177" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H5" s="127" t="s">
         <v>168</v>
@@ -53595,10 +53592,10 @@
         <v>245</v>
       </c>
       <c r="F6" s="177" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="G6" s="177" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="H6" s="127" t="s">
         <v>241</v>
@@ -53615,13 +53612,13 @@
       </c>
       <c r="D7" s="263"/>
       <c r="E7" s="179" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F7" s="169" t="s">
-        <v>279</v>
+        <v>377</v>
       </c>
       <c r="G7" s="177" t="s">
-        <v>287</v>
+        <v>378</v>
       </c>
       <c r="H7" s="127" t="s">
         <v>262</v>
@@ -53641,10 +53638,10 @@
         <v>246</v>
       </c>
       <c r="F8" s="169" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G8" s="177" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H8" s="127" t="s">
         <v>269</v>
@@ -53657,17 +53654,17 @@
         <v>5</v>
       </c>
       <c r="C9" s="175" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D9" s="263"/>
       <c r="E9" s="176" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F9" s="169" t="s">
-        <v>290</v>
+        <v>381</v>
       </c>
       <c r="G9" s="177" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="H9" s="127" t="s">
         <v>273</v>
@@ -53680,20 +53677,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="175" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D10" s="263"/>
       <c r="E10" s="176" t="s">
-        <v>246</v>
+        <v>383</v>
       </c>
       <c r="F10" s="169" t="s">
-        <v>294</v>
+        <v>380</v>
       </c>
       <c r="G10" s="177" t="s">
-        <v>295</v>
+        <v>384</v>
       </c>
       <c r="H10" s="127" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="J10" s="38"/>
     </row>
@@ -53715,7 +53712,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="200" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D12" s="265" t="s">
         <v>164</v>
@@ -53724,13 +53721,13 @@
         <v>166</v>
       </c>
       <c r="F12" s="202" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G12" s="202" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="H12" s="203" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="I12" s="108"/>
       <c r="J12" s="38"/>
@@ -53740,20 +53737,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D13" s="266"/>
       <c r="E13" s="201" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F13" s="202" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G13" s="202" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H13" s="204" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -53762,20 +53759,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D14" s="266"/>
       <c r="E14" s="201" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F14" s="202" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G14" s="202" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H14" s="200" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I14" s="108"/>
       <c r="J14" s="38"/>
@@ -53785,20 +53782,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="D15" s="266"/>
       <c r="E15" s="201" t="s">
         <v>261</v>
       </c>
       <c r="F15" s="202" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G15" s="201" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="H15" s="200" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="I15" s="108"/>
       <c r="J15" s="38"/>
@@ -53808,20 +53805,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D16" s="266"/>
       <c r="E16" s="201" t="s">
         <v>261</v>
       </c>
       <c r="F16" s="202" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="G16" s="202" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="H16" s="200" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I16" s="108"/>
       <c r="J16" s="38"/>
@@ -53870,7 +53867,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="180" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D20" s="267" t="s">
         <v>165</v>
@@ -53879,13 +53876,13 @@
         <v>166</v>
       </c>
       <c r="F20" s="177" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="G20" s="177" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="H20" s="127" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I20" s="108"/>
       <c r="J20" s="38"/>
@@ -53895,20 +53892,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="180" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D21" s="268"/>
       <c r="E21" s="201" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F21" s="202" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G21" s="182" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H21" s="183" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="I21" s="108"/>
       <c r="J21" s="38"/>
@@ -53918,20 +53915,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="180" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D22" s="268"/>
       <c r="E22" s="181" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F22" s="177" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G22" s="182" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="H22" s="183" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I22" s="108"/>
       <c r="J22" s="38"/>
@@ -53941,20 +53938,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="180" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D23" s="268"/>
       <c r="E23" s="181" t="s">
         <v>261</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="H23" s="180" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="I23" s="108"/>
       <c r="J23" s="38"/>
@@ -53964,20 +53961,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="180" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D24" s="268"/>
       <c r="E24" s="181" t="s">
         <v>261</v>
       </c>
       <c r="F24" s="177" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="G24" s="182" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H24" s="180" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="I24" s="108"/>
       <c r="J24" s="38"/>
@@ -54175,12 +54172,12 @@
       <c r="C4" s="270" t="s">
         <v>171</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -54196,12 +54193,12 @@
       <c r="C5" s="270" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -54215,7 +54212,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -54238,12 +54235,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -54280,12 +54277,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -54348,19 +54345,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -54389,11 +54386,11 @@
       <c r="I14" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -54422,11 +54419,11 @@
       <c r="I15" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="J15" s="278" t="s">
+      <c r="J15" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -54455,11 +54452,11 @@
       <c r="I16" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="J16" s="278" t="s">
+      <c r="J16" s="280" t="s">
         <v>179</v>
       </c>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -54524,8 +54521,8 @@
       <c r="J18" s="270" t="s">
         <v>188</v>
       </c>
-      <c r="K18" s="279"/>
-      <c r="L18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="272"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -54615,8 +54612,8 @@
       <c r="J21" s="270" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="279"/>
-      <c r="L21" s="271"/>
+      <c r="K21" s="271"/>
+      <c r="L21" s="272"/>
       <c r="M21" s="66"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
@@ -54778,11 +54775,11 @@
     </row>
     <row r="31" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="69"/>
-      <c r="B31" s="280" t="s">
+      <c r="B31" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="86"/>
       <c r="F31" s="87"/>
       <c r="G31" s="86"/>
@@ -54797,12 +54794,12 @@
     </row>
     <row r="32" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="89"/>
-      <c r="B32" s="275" t="s">
+      <c r="B32" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="276"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="277"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="279"/>
       <c r="F32" s="76" t="s">
         <v>132</v>
       </c>
@@ -54894,10 +54891,10 @@
       <c r="A35" s="66"/>
       <c r="B35" s="91"/>
       <c r="C35" s="96"/>
-      <c r="D35" s="279" t="s">
+      <c r="D35" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="271"/>
+      <c r="E35" s="272"/>
       <c r="F35" s="78" t="s">
         <v>148</v>
       </c>
@@ -54927,10 +54924,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="98"/>
-      <c r="D36" s="279" t="s">
+      <c r="D36" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="271"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="78" t="s">
         <v>200</v>
       </c>
@@ -54993,10 +54990,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="279" t="s">
+      <c r="D38" s="271" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="271"/>
+      <c r="E38" s="272"/>
       <c r="F38" s="135" t="s">
         <v>258</v>
       </c>
@@ -55026,10 +55023,10 @@
       <c r="A39" s="66"/>
       <c r="B39" s="91"/>
       <c r="C39" s="96"/>
-      <c r="D39" s="284" t="s">
+      <c r="D39" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="E39" s="285"/>
+      <c r="E39" s="286"/>
       <c r="F39" s="78" t="s">
         <v>174</v>
       </c>
@@ -55084,10 +55081,10 @@
       <c r="A41" s="66"/>
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
-      <c r="D41" s="279" t="s">
+      <c r="D41" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E41" s="271"/>
+      <c r="E41" s="272"/>
       <c r="F41" s="78" t="s">
         <v>184</v>
       </c>
@@ -55665,10 +55662,10 @@
       <c r="A68" s="66"/>
       <c r="B68" s="91"/>
       <c r="C68" s="96"/>
-      <c r="D68" s="281" t="s">
+      <c r="D68" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E68" s="271"/>
+      <c r="E68" s="272"/>
       <c r="F68" s="78" t="s">
         <v>148</v>
       </c>
@@ -55698,10 +55695,10 @@
       <c r="A69" s="66"/>
       <c r="B69" s="91"/>
       <c r="C69" s="96"/>
-      <c r="D69" s="281" t="s">
+      <c r="D69" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E69" s="282"/>
+      <c r="E69" s="283"/>
       <c r="F69" s="135" t="s">
         <v>221</v>
       </c>
@@ -55731,10 +55728,10 @@
       <c r="A70" s="66"/>
       <c r="B70" s="91"/>
       <c r="C70" s="96"/>
-      <c r="D70" s="283" t="s">
+      <c r="D70" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E70" s="282"/>
+      <c r="E70" s="283"/>
       <c r="F70" s="135" t="s">
         <v>224</v>
       </c>
@@ -55829,7 +55826,7 @@
       <c r="B73" s="97"/>
       <c r="C73" s="98"/>
       <c r="D73" s="270"/>
-      <c r="E73" s="271"/>
+      <c r="E73" s="272"/>
       <c r="F73" s="78"/>
       <c r="G73" s="80"/>
       <c r="H73" s="80"/>
@@ -56225,11 +56222,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B32:E32"/>
@@ -56246,6 +56238,11 @@
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
@@ -56269,7 +56266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A71" sqref="A71:J99"/>
     </sheetView>
   </sheetViews>
@@ -56352,15 +56349,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="282" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -56373,15 +56370,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
+      <c r="C5" s="282" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -56418,12 +56415,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -56460,12 +56457,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -56528,19 +56525,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -56569,11 +56566,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -56602,11 +56599,11 @@
       <c r="I15" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="J15" s="278" t="s">
+      <c r="J15" s="280" t="s">
         <v>176</v>
       </c>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -56638,8 +56635,8 @@
       <c r="J16" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -56672,8 +56669,8 @@
       <c r="H18" s="80"/>
       <c r="I18" s="79"/>
       <c r="J18" s="270"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="272"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -56689,8 +56686,8 @@
       <c r="H19" s="80"/>
       <c r="I19" s="147"/>
       <c r="J19" s="270"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="272"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -56852,11 +56849,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -56871,12 +56868,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="277"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
       <c r="F30" s="164" t="s">
         <v>132</v>
       </c>
@@ -56968,10 +56965,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -57001,10 +56998,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>200</v>
       </c>
@@ -57067,10 +57064,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="279" t="s">
+      <c r="D36" s="271" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="271"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="78" t="s">
         <v>204</v>
       </c>
@@ -57100,10 +57097,10 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="284" t="s">
+      <c r="D37" s="285" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="285"/>
+      <c r="E37" s="286"/>
       <c r="F37" s="78" t="s">
         <v>174</v>
       </c>
@@ -57133,10 +57130,10 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="279" t="s">
+      <c r="D38" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E38" s="271"/>
+      <c r="E38" s="272"/>
       <c r="F38" s="78" t="s">
         <v>184</v>
       </c>
@@ -57656,10 +57653,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="281" t="s">
+      <c r="D63" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="271"/>
+      <c r="E63" s="272"/>
       <c r="F63" s="78" t="s">
         <v>148</v>
       </c>
@@ -57689,10 +57686,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="281" t="s">
+      <c r="D64" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="282"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="135" t="s">
         <v>221</v>
       </c>
@@ -57722,10 +57719,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="283" t="s">
+      <c r="D65" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="282"/>
+      <c r="E65" s="283"/>
       <c r="F65" s="135" t="s">
         <v>224</v>
       </c>
@@ -57820,7 +57817,7 @@
       <c r="B68" s="97"/>
       <c r="C68" s="98"/>
       <c r="D68" s="270"/>
-      <c r="E68" s="271"/>
+      <c r="E68" s="272"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -58216,6 +58213,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -58228,15 +58234,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
@@ -58252,7 +58249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -58335,15 +58332,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="282" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -58356,15 +58353,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
+      <c r="C5" s="282" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -58401,12 +58398,12 @@
       <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -58443,12 +58440,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -58511,19 +58508,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -58552,11 +58549,11 @@
       <c r="I14" s="164" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="286" t="s">
+      <c r="J14" s="273" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -58571,9 +58568,9 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="81"/>
-      <c r="J15" s="278"/>
-      <c r="K15" s="278"/>
-      <c r="L15" s="278"/>
+      <c r="J15" s="280"/>
+      <c r="K15" s="280"/>
+      <c r="L15" s="280"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -58589,8 +58586,8 @@
       <c r="H16" s="80"/>
       <c r="I16" s="81"/>
       <c r="J16" s="287"/>
-      <c r="K16" s="278"/>
-      <c r="L16" s="278"/>
+      <c r="K16" s="280"/>
+      <c r="L16" s="280"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -58623,8 +58620,8 @@
       <c r="H18" s="80"/>
       <c r="I18" s="79"/>
       <c r="J18" s="270"/>
-      <c r="K18" s="279"/>
-      <c r="L18" s="271"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="272"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
@@ -58640,8 +58637,8 @@
       <c r="H19" s="80"/>
       <c r="I19" s="147"/>
       <c r="J19" s="270"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="272"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -58803,11 +58800,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -58822,12 +58819,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="277"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
       <c r="F30" s="164" t="s">
         <v>132</v>
       </c>
@@ -58919,10 +58916,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -58952,10 +58949,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>200</v>
       </c>
@@ -59002,8 +58999,8 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="279"/>
-      <c r="E36" s="271"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="78"/>
       <c r="G36" s="80"/>
       <c r="H36" s="80"/>
@@ -59019,8 +59016,8 @@
       <c r="A37" s="66"/>
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
-      <c r="D37" s="284"/>
-      <c r="E37" s="285"/>
+      <c r="D37" s="285"/>
+      <c r="E37" s="286"/>
       <c r="F37" s="78"/>
       <c r="G37" s="80"/>
       <c r="H37" s="80"/>
@@ -59036,8 +59033,8 @@
       <c r="A38" s="66"/>
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="271"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="272"/>
       <c r="F38" s="78"/>
       <c r="G38" s="80"/>
       <c r="H38" s="80"/>
@@ -59511,10 +59508,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="281" t="s">
+      <c r="D63" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E63" s="271"/>
+      <c r="E63" s="272"/>
       <c r="F63" s="78" t="s">
         <v>148</v>
       </c>
@@ -59544,10 +59541,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="281" t="s">
+      <c r="D64" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E64" s="282"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="135" t="s">
         <v>221</v>
       </c>
@@ -59577,10 +59574,10 @@
       <c r="A65" s="66"/>
       <c r="B65" s="91"/>
       <c r="C65" s="96"/>
-      <c r="D65" s="283" t="s">
+      <c r="D65" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E65" s="282"/>
+      <c r="E65" s="283"/>
       <c r="F65" s="135" t="s">
         <v>224</v>
       </c>
@@ -59675,7 +59672,7 @@
       <c r="B68" s="97"/>
       <c r="C68" s="98"/>
       <c r="D68" s="270"/>
-      <c r="E68" s="271"/>
+      <c r="E68" s="272"/>
       <c r="F68" s="78"/>
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
@@ -60071,6 +60068,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
@@ -60083,15 +60089,6 @@
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D63:E63"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
@@ -60105,8 +60102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD17"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -60188,15 +60185,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="281" t="s">
+      <c r="C4" s="282" t="s">
         <v>263</v>
       </c>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="271"/>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -60209,15 +60206,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="281" t="s">
+      <c r="C5" s="282" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="279"/>
-      <c r="H5" s="279"/>
-      <c r="I5" s="271"/>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -60231,7 +60228,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>278</v>
+        <v>376</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -60251,15 +60248,15 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="281" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="279"/>
-      <c r="E7" s="279"/>
-      <c r="F7" s="279"/>
-      <c r="G7" s="279"/>
-      <c r="H7" s="279"/>
-      <c r="I7" s="271"/>
+      <c r="C7" s="282" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -60296,12 +60293,12 @@
       <c r="C9" s="270" t="s">
         <v>212</v>
       </c>
-      <c r="D9" s="279"/>
-      <c r="E9" s="279"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="279"/>
-      <c r="H9" s="279"/>
-      <c r="I9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -60364,19 +60361,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="272" t="s">
+      <c r="B13" s="274" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="273"/>
-      <c r="D13" s="273"/>
-      <c r="E13" s="273"/>
-      <c r="F13" s="273"/>
-      <c r="G13" s="273"/>
-      <c r="H13" s="273"/>
-      <c r="I13" s="273"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="273"/>
-      <c r="L13" s="274"/>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -60503,8 +60500,8 @@
       <c r="J17" s="270" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="279"/>
-      <c r="L17" s="271"/>
+      <c r="K17" s="271"/>
+      <c r="L17" s="272"/>
       <c r="M17" s="66"/>
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
@@ -60565,8 +60562,8 @@
       <c r="J19" s="270" t="s">
         <v>192</v>
       </c>
-      <c r="K19" s="279"/>
-      <c r="L19" s="271"/>
+      <c r="K19" s="271"/>
+      <c r="L19" s="272"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
@@ -60728,11 +60725,11 @@
     </row>
     <row r="29" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
-      <c r="B29" s="280" t="s">
+      <c r="B29" s="281" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
       <c r="E29" s="86"/>
       <c r="F29" s="87"/>
       <c r="G29" s="86"/>
@@ -60747,12 +60744,12 @@
     </row>
     <row r="30" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="89"/>
-      <c r="B30" s="275" t="s">
+      <c r="B30" s="277" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="277"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="279"/>
       <c r="F30" s="164" t="s">
         <v>132</v>
       </c>
@@ -60844,10 +60841,10 @@
       <c r="A33" s="66"/>
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
-      <c r="D33" s="279" t="s">
+      <c r="D33" s="271" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="271"/>
+      <c r="E33" s="272"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -60877,10 +60874,10 @@
       <c r="A34" s="66"/>
       <c r="B34" s="91"/>
       <c r="C34" s="98"/>
-      <c r="D34" s="279" t="s">
+      <c r="D34" s="271" t="s">
         <v>199</v>
       </c>
-      <c r="E34" s="271"/>
+      <c r="E34" s="272"/>
       <c r="F34" s="78" t="s">
         <v>200</v>
       </c>
@@ -60943,10 +60940,10 @@
       <c r="A36" s="66"/>
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
-      <c r="D36" s="279" t="s">
+      <c r="D36" s="271" t="s">
         <v>189</v>
       </c>
-      <c r="E36" s="271"/>
+      <c r="E36" s="272"/>
       <c r="F36" s="78" t="s">
         <v>184</v>
       </c>
@@ -61495,10 +61492,10 @@
       <c r="A62" s="66"/>
       <c r="B62" s="91"/>
       <c r="C62" s="96"/>
-      <c r="D62" s="281" t="s">
+      <c r="D62" s="282" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="271"/>
+      <c r="E62" s="272"/>
       <c r="F62" s="78" t="s">
         <v>148</v>
       </c>
@@ -61528,10 +61525,10 @@
       <c r="A63" s="66"/>
       <c r="B63" s="91"/>
       <c r="C63" s="96"/>
-      <c r="D63" s="281" t="s">
+      <c r="D63" s="282" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="282"/>
+      <c r="E63" s="283"/>
       <c r="F63" s="135" t="s">
         <v>221</v>
       </c>
@@ -61561,10 +61558,10 @@
       <c r="A64" s="66"/>
       <c r="B64" s="91"/>
       <c r="C64" s="96"/>
-      <c r="D64" s="283" t="s">
+      <c r="D64" s="284" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="282"/>
+      <c r="E64" s="283"/>
       <c r="F64" s="135" t="s">
         <v>224</v>
       </c>
@@ -61659,7 +61656,7 @@
       <c r="B67" s="97"/>
       <c r="C67" s="98"/>
       <c r="D67" s="270"/>
-      <c r="E67" s="271"/>
+      <c r="E67" s="272"/>
       <c r="F67" s="78"/>
       <c r="G67" s="80"/>
       <c r="H67" s="80"/>
@@ -62055,6 +62052,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="B29:D29"/>
@@ -62065,13 +62069,6 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D62:E62"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I19" r:id="rId1"/>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_NguyenLeQuocViet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="640" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -1003,12 +1003,6 @@
     <t>Create post</t>
   </si>
   <si>
-    <t>/miniblog/posts</t>
-  </si>
-  <si>
-    <t>POST /miniblog/posts</t>
-  </si>
-  <si>
     <t>Create new post</t>
   </si>
   <si>
@@ -1028,9 +1022,6 @@
   </si>
   <si>
     <t>Create new post.</t>
-  </si>
-  <si>
-    <t>http://192.168.56.2:8080/miniblog/posts</t>
   </si>
   <si>
     <t>1</t>
@@ -1082,15 +1073,6 @@
   </si>
   <si>
     <t>Active/Deactive Post</t>
-  </si>
-  <si>
-    <t>PUT  /miniblog/posts/status/xxx</t>
-  </si>
-  <si>
-    <t>/miniblog/posts/status/{id}</t>
-  </si>
-  <si>
-    <t>http://192.168.56.2:8080/miniblog/posts/status/{id}</t>
   </si>
   <si>
     <t>Edit post</t>
@@ -1147,16 +1129,10 @@
     <t>Comment id</t>
   </si>
   <si>
-    <t>/miniblog/list</t>
-  </si>
-  <si>
     <t>/miniblog/listby/{users_id}</t>
   </si>
   <si>
     <t>Get All Post By User</t>
-  </si>
-  <si>
-    <t>GET    /miniblog/list</t>
   </si>
   <si>
     <t>GET /miniblog/listby/xxx</t>
@@ -1289,6 +1265,30 @@
   </si>
   <si>
     <t>http://192.168.56.2:8080/miniblog/users/changePass</t>
+  </si>
+  <si>
+    <t>/miniblog/posts/add</t>
+  </si>
+  <si>
+    <t>POST /miniblog/posts/add</t>
+  </si>
+  <si>
+    <t>/miniblog/posts/list</t>
+  </si>
+  <si>
+    <t>GET    /miniblog/posts/list</t>
+  </si>
+  <si>
+    <t>http://192.168.56.2:8080/miniblog/posts/add</t>
+  </si>
+  <si>
+    <t>/miniblog/posts/status</t>
+  </si>
+  <si>
+    <t>PUT  /miniblog/posts/status</t>
+  </si>
+  <si>
+    <t>http://192.168.56.2:8080/miniblog/posts/status</t>
   </si>
 </sst>
 </file>
@@ -4018,7 +4018,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>/miniblog/posts/status/1 HTTP/1.1</a:t>
+            <a:t>/miniblog/posts/status HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4064,7 +4064,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Content-Type:  application/x-www-form-urlencoded</a:t>
+            <a:t>Content-Type:  application/json</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15864,20 +15864,23 @@
             </a:rPr>
             <a:t>      "username": "nguyen.viet",</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -15898,7 +15901,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -15912,7 +15915,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "password": "123456",</a:t>
+            <a:t>      "password":"*******",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -16202,7 +16205,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
+            <a:t>HTTP/1.1 1001</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -16319,22 +16322,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
+            <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16779,20 +16767,23 @@
             </a:rPr>
             <a:t>      "username": "nguyen.viet",</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -16813,7 +16804,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -16827,7 +16818,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "password": "123456",</a:t>
+            <a:t>      "password":"*******",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -16949,7 +16940,43 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "email": "viet.nguyen@mulodo.com,</a:t>
+            <a:t>      "email": "viet.nguyen@mulodo.com"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "status": 0,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17081,7 +17108,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
+            <a:t>HTTP/1.1 1001</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -17168,7 +17195,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "messages": </a:t>
+            <a:t>      "messages": "Fields are required!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17177,115 +17204,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Username is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Password is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
+            <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17648,10 +17567,10 @@
       <xdr:rowOff>56695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>149678</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>231321</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640773</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17660,8 +17579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="830941" y="17639845"/>
-          <a:ext cx="10129612" cy="6861176"/>
+          <a:off x="833539" y="17270968"/>
+          <a:ext cx="7894825" cy="2229305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17711,7 +17630,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
+            <a:t>HTTP/1.1 1002</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -17735,18 +17654,12 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>{ </a:t>
+            <a:t>{</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17780,7 +17693,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code":1001,</a:t>
+            <a:t>      "code":1002,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17798,16 +17711,21 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "messages": </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
+            <a:t>      "messages": "You</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> are not login</a:t>
+          </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      [</a:t>
+            <a:t>."</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17816,73 +17734,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"You</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> are not login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}      </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
+            <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18273,7 +18125,24 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "firstname": "Viet",</a:t>
+            <a:t>      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"user_id":1,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18309,7 +18178,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "lastname": "Nguyen",</a:t>
+            <a:t>      "username": "nguyen.viet",,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18331,7 +18200,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -18345,7 +18214,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "birthday": "2014/5/11",</a:t>
+            <a:t>      "password":"*******",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18381,7 +18250,151 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "email": "viet.nguyen@mulodo.com,</a:t>
+            <a:t>      "firstname": "Viet",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "lastname": "Nguyen",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "birthday": "2014/11/11",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "status": 0,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "email": "viet.nguyen@mulodo.com"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18472,186 +18485,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Content-Type: application/json</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "code":1001,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "description":"Input validation failed.",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "messages": </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Firstname is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Lastname is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -18684,7 +18517,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        {</a:t>
+            <a:t>HTTP/1.1 1001 OK</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18720,7 +18553,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>	message:"Email is required."</a:t>
+            <a:t>Content-Type: application/json</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18741,6 +18574,39 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
@@ -18756,44 +18622,256 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        }</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:t>{ </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  "meta":</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "code":1001,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "description":"Input validation failed.",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "messages": "Fields are required!"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
@@ -19235,20 +19313,23 @@
             </a:rPr>
             <a:t>      "username": "nguyen.viet",</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19269,7 +19350,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -19283,7 +19364,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "password": "123456",</a:t>
+            <a:t>      "password":"*******",</a:t>
           </a:r>
           <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
@@ -19568,59 +19649,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Content-Type: application/json</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -19649,12 +19677,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HTTP/1.1 1002 OK</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19685,12 +19727,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "code":1002,</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Content-Type: application/json</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19721,12 +19777,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "description":"User have been login first.",</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19757,12 +19827,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "messages": "You need to login"</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  "meta":</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19793,12 +19877,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19829,12 +19927,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "code":1002,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19865,12 +19977,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Login First!"</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "description":"Check Login first.",</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19901,12 +20027,26 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        }</a:t>
-          </a:r>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "messages": "You are not login."</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -19937,43 +20077,76 @@
               <a:effectLst/>
               <a:uLnTx/>
               <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>}</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -20390,7 +20563,7 @@
             </a:rPr>
             <a:t>      "username": "nguyen.viet",</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -20424,7 +20597,7 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -20438,22 +20611,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "password": "123123",</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:prstClr val="black"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uLnTx/>
-            <a:uFillTx/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
+            <a:t>      "password":"*******",</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -20723,182 +20882,393 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>HTTP/1.1 1001 OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Content-Type: application/json</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>{ </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>  "meta":</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>      "code":1001,</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>      "description":"Input validation failed.",</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "messages": </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Password is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "messages": "Fields are required!"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
@@ -20998,7 +21368,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>/miniblog/users/search/viet HTTP/1.1</a:t>
+            <a:t>/miniblog/users/search HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21047,7 +21417,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>name=n</a:t>
+            <a:t>name=viet</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -21312,6 +21682,59 @@
             </a:rPr>
             <a:t>      "username": "nguyen.viet",</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "password":"*******",</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="0" lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
             <a:ln>
               <a:noFill/>
@@ -21595,59 +22018,6 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>Content-Type: application/json</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{ </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "meta":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -21680,7 +22050,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>   {</a:t>
+            <a:t>HTTP/1.1 9001 OK</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21716,7 +22086,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "code":9001,</a:t>
+            <a:t>Content-Type: application/json</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21737,23 +22107,20 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:prstClr val="black"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:uLnTx/>
-              <a:uFillTx/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "description":"data not exist!",</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -21788,7 +22155,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "messages": </a:t>
+            <a:t>{ </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21824,7 +22191,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      [</a:t>
+            <a:t>  "meta":</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21860,7 +22227,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        {</a:t>
+            <a:t>  {</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21896,7 +22263,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>	message:"Not exist!"</a:t>
+            <a:t>      "code":9001,</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21932,7 +22299,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>        }</a:t>
+            <a:t>      "description":"Search failed.",</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -21968,7 +22335,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      ]</a:t>
+            <a:t>      "messages": "Data not exist!"</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -22004,28 +22371,40 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:t>  }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
@@ -22111,7 +22490,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /miniblog/post HTTP/1.1</a:t>
+            <a:t>POST /miniblog/posts/add HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -22754,216 +23133,393 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t> OK</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>HTTP/1.1 1001 OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>Content-Type: application/json</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:prstClr val="black"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
             <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>{ </a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>  "meta":</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>      "code":1001,</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>      "description":"Input validation failed.",</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "messages": </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Username is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Password is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>      "messages": "Filed is required."</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="black"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
             <a:t>}</a:t>
@@ -23692,7 +24248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -25635,7 +26191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -25761,7 +26317,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -27613,7 +28169,1941 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="67"/>
+    <col min="2" max="2" width="17.875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="15" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="67"/>
+    <col min="8" max="8" width="11.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="67" customWidth="1"/>
+    <col min="11" max="11" width="5.875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="38.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="66"/>
+      <c r="B3" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="66"/>
+      <c r="B4" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="282" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="271"/>
+      <c r="E4" s="271"/>
+      <c r="F4" s="271"/>
+      <c r="G4" s="271"/>
+      <c r="H4" s="271"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="66"/>
+      <c r="B5" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="282" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="271"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="66"/>
+      <c r="B6" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="172" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="158"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="158"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="66"/>
+      <c r="B7" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="282" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="271"/>
+      <c r="E7" s="271"/>
+      <c r="F7" s="271"/>
+      <c r="G7" s="271"/>
+      <c r="H7" s="271"/>
+      <c r="I7" s="272"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="66"/>
+      <c r="B9" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="270" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="272"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="66"/>
+      <c r="B11" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="66"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="66"/>
+      <c r="B13" s="274" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="275"/>
+      <c r="D13" s="275"/>
+      <c r="E13" s="275"/>
+      <c r="F13" s="275"/>
+      <c r="G13" s="275"/>
+      <c r="H13" s="275"/>
+      <c r="I13" s="275"/>
+      <c r="J13" s="275"/>
+      <c r="K13" s="275"/>
+      <c r="L13" s="276"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="66"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="164" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="164" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="273" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="66"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" s="80">
+        <v>100</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>237</v>
+      </c>
+      <c r="J15" s="152" t="s">
+        <v>186</v>
+      </c>
+      <c r="K15" s="158"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="66"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="80">
+        <v>100</v>
+      </c>
+      <c r="I16" s="137" t="s">
+        <v>237</v>
+      </c>
+      <c r="J16" s="270" t="s">
+        <v>188</v>
+      </c>
+      <c r="K16" s="271"/>
+      <c r="L16" s="272"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="66"/>
+      <c r="B17" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="66"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="66"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="66"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="66"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="66"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="66"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="66"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="66"/>
+    </row>
+    <row r="25" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="69"/>
+      <c r="B25" s="281" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="69"/>
+      <c r="M25" s="69"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+    </row>
+    <row r="26" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="89"/>
+      <c r="B26" s="277" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="278"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="279"/>
+      <c r="F26" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="J26" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="L26" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="66"/>
+      <c r="B27" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="L27" s="79"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="150" t="s">
+        <v>196</v>
+      </c>
+      <c r="D28" s="95"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H28" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I28" s="80">
+        <v>1</v>
+      </c>
+      <c r="J28" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28" s="80" t="s">
+        <v>153</v>
+      </c>
+      <c r="L28" s="79"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="271" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="272"/>
+      <c r="F29" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I29" s="80">
+        <v>1</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L29" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="271" t="s">
+        <v>199</v>
+      </c>
+      <c r="E30" s="272"/>
+      <c r="F30" s="78" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H30" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="80">
+        <v>1</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" s="79" t="s">
+        <v>201</v>
+      </c>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="66"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="150" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G31" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I31" s="80">
+        <v>1</v>
+      </c>
+      <c r="J31" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L31" s="79" t="s">
+        <v>208</v>
+      </c>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="66"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="285" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="286"/>
+      <c r="F32" s="78" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H32" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="80">
+        <v>1</v>
+      </c>
+      <c r="J32" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="66"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="271" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33" s="272"/>
+      <c r="F33" s="78" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H33" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I33" s="80">
+        <v>1</v>
+      </c>
+      <c r="J33" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L33" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="66"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="158" t="s">
+        <v>187</v>
+      </c>
+      <c r="E34" s="153"/>
+      <c r="F34" s="78" t="s">
+        <v>185</v>
+      </c>
+      <c r="G34" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I34" s="80">
+        <v>1</v>
+      </c>
+      <c r="J34" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" s="79" t="s">
+        <v>207</v>
+      </c>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="66"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="158" t="s">
+        <v>247</v>
+      </c>
+      <c r="E35" s="153"/>
+      <c r="F35" s="137" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I35" s="80">
+        <v>1</v>
+      </c>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="66"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="153"/>
+      <c r="F36" s="137" t="s">
+        <v>251</v>
+      </c>
+      <c r="G36" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="H36" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I36" s="80">
+        <v>1</v>
+      </c>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="66"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="148" t="s">
+        <v>190</v>
+      </c>
+      <c r="E37" s="153"/>
+      <c r="F37" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H37" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="80">
+        <v>1</v>
+      </c>
+      <c r="J37" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="L37" s="137" t="s">
+        <v>230</v>
+      </c>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="66"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="83"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="66"/>
+      <c r="B39" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="92"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="83"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="66"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="66"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="66"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="66"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="83"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="66"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
+      <c r="O46" s="66"/>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="66"/>
+      <c r="N48" s="66"/>
+      <c r="O48" s="66"/>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="66"/>
+      <c r="N49" s="66"/>
+      <c r="O49" s="66"/>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="83"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="66"/>
+      <c r="O50" s="66"/>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="83"/>
+      <c r="M53" s="66"/>
+      <c r="N53" s="66"/>
+      <c r="O53" s="66"/>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="83"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="66"/>
+      <c r="O54" s="66"/>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
+      <c r="M55" s="66"/>
+      <c r="N55" s="66"/>
+      <c r="O55" s="66"/>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="146"/>
+      <c r="D56" s="146"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="66"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="154" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="164" t="s">
+        <v>132</v>
+      </c>
+      <c r="G57" s="164" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="164" t="s">
+        <v>146</v>
+      </c>
+      <c r="J57" s="164" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="164" t="s">
+        <v>137</v>
+      </c>
+      <c r="L57" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+    </row>
+    <row r="58" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="89"/>
+      <c r="B58" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="J58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="L58" s="79"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="89"/>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D59" s="95"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="G59" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I59" s="80">
+        <v>1</v>
+      </c>
+      <c r="J59" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L59" s="79"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="282" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="272"/>
+      <c r="F60" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="G60" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H60" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="80">
+        <v>1</v>
+      </c>
+      <c r="J60" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="137" t="s">
+        <v>223</v>
+      </c>
+      <c r="M60" s="66"/>
+      <c r="N60" s="66"/>
+      <c r="O60" s="66"/>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="91"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="282" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="283"/>
+      <c r="F61" s="135" t="s">
+        <v>221</v>
+      </c>
+      <c r="G61" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I61" s="80">
+        <v>1</v>
+      </c>
+      <c r="J61" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="137" t="s">
+        <v>222</v>
+      </c>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="96"/>
+      <c r="D62" s="284" t="s">
+        <v>226</v>
+      </c>
+      <c r="E62" s="283"/>
+      <c r="F62" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="G62" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H62" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="80">
+        <v>1</v>
+      </c>
+      <c r="J62" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L62" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="M62" s="66"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="66"/>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="91"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="135" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="136" t="s">
+        <v>175</v>
+      </c>
+      <c r="H63" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I63" s="136" t="s">
+        <v>225</v>
+      </c>
+      <c r="J63" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="K63" s="136" t="s">
+        <v>140</v>
+      </c>
+      <c r="L63" s="137" t="s">
+        <v>228</v>
+      </c>
+      <c r="M63" s="66"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="66"/>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="D64" s="95"/>
+      <c r="E64" s="93"/>
+      <c r="F64" s="78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H64" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="I64" s="80">
+        <v>1</v>
+      </c>
+      <c r="J64" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L64" s="79"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+    </row>
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="270"/>
+      <c r="E65" s="272"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="79"/>
+      <c r="M65" s="66"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+    </row>
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="83"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="83"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="99"/>
+      <c r="I66" s="99"/>
+      <c r="J66" s="99"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="66"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+    </row>
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
+      <c r="M67" s="66"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+    </row>
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+    </row>
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
+      <c r="M69" s="66"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+    </row>
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
+      <c r="M70" s="66"/>
+      <c r="N70" s="66"/>
+      <c r="O70" s="66"/>
+    </row>
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="66"/>
+      <c r="O71" s="66"/>
+    </row>
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
+      <c r="M72" s="66"/>
+      <c r="N72" s="66"/>
+      <c r="O72" s="66"/>
+    </row>
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="66"/>
+      <c r="O73" s="66"/>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="66"/>
+      <c r="O74" s="66"/>
+    </row>
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="66"/>
+      <c r="O75" s="66"/>
+    </row>
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+    </row>
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
+      <c r="M77" s="66"/>
+      <c r="N77" s="66"/>
+      <c r="O77" s="66"/>
+    </row>
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="66"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
+      <c r="M78" s="66"/>
+      <c r="N78" s="66"/>
+      <c r="O78" s="66"/>
+    </row>
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
+      <c r="M79" s="66"/>
+      <c r="N79" s="66"/>
+      <c r="O79" s="66"/>
+    </row>
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
+      <c r="M80" s="66"/>
+      <c r="N80" s="66"/>
+      <c r="O80" s="66"/>
+    </row>
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
+      <c r="M81" s="66"/>
+      <c r="N81" s="66"/>
+      <c r="O81" s="66"/>
+    </row>
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="66"/>
+    </row>
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
+      <c r="M83" s="66"/>
+      <c r="N83" s="66"/>
+      <c r="O83" s="66"/>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
+      <c r="M84" s="66"/>
+      <c r="N84" s="66"/>
+      <c r="O84" s="66"/>
+    </row>
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
+      <c r="M85" s="66"/>
+      <c r="N85" s="66"/>
+      <c r="O85" s="66"/>
+    </row>
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
+      <c r="M86" s="66"/>
+      <c r="N86" s="66"/>
+      <c r="O86" s="66"/>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="100"/>
+      <c r="C87" s="100"/>
+      <c r="D87" s="100"/>
+      <c r="E87" s="100"/>
+      <c r="F87" s="100"/>
+      <c r="G87" s="100"/>
+      <c r="H87" s="100"/>
+      <c r="I87" s="100"/>
+      <c r="J87" s="100"/>
+      <c r="K87" s="100"/>
+      <c r="L87" s="100"/>
+      <c r="M87" s="66"/>
+      <c r="N87" s="66"/>
+      <c r="O87" s="66"/>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="100"/>
+      <c r="M88" s="100"/>
+      <c r="N88" s="100"/>
+      <c r="O88" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
       <selection activeCell="C7" sqref="C7:I7"/>
     </sheetView>
   </sheetViews>
@@ -27656,7 +30146,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -27697,7 +30187,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -27718,7 +30208,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -27739,7 +30229,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -27759,7 +30249,7 @@
       <c r="B7" s="70" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="282" t="s">
+      <c r="C7" s="270" t="s">
         <v>166</v>
       </c>
       <c r="D7" s="271"/>
@@ -27925,1940 +30415,6 @@
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
-      <c r="C15" s="78" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="H15" s="80">
-        <v>100</v>
-      </c>
-      <c r="I15" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="J15" s="152" t="s">
-        <v>186</v>
-      </c>
-      <c r="K15" s="158"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-    </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="66"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="H16" s="80">
-        <v>100</v>
-      </c>
-      <c r="I16" s="137" t="s">
-        <v>237</v>
-      </c>
-      <c r="J16" s="270" t="s">
-        <v>188</v>
-      </c>
-      <c r="K16" s="271"/>
-      <c r="L16" s="272"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="66"/>
-      <c r="B17" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="66"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="66"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="66"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="66"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="66"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="66"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="66"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-    </row>
-    <row r="25" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="281" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="69"/>
-    </row>
-    <row r="26" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="89"/>
-      <c r="B26" s="277" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="278"/>
-      <c r="D26" s="278"/>
-      <c r="E26" s="279"/>
-      <c r="F26" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="164" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="164" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="164" t="s">
-        <v>146</v>
-      </c>
-      <c r="J26" s="164" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="164" t="s">
-        <v>213</v>
-      </c>
-      <c r="M26" s="89"/>
-      <c r="N26" s="89"/>
-      <c r="O26" s="89"/>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="66"/>
-      <c r="B27" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="150" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="95"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="G28" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H28" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I28" s="80">
-        <v>1</v>
-      </c>
-      <c r="J28" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K28" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L28" s="79"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="271" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="272"/>
-      <c r="F29" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="80">
-        <v>1</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L29" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-    </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="271" t="s">
-        <v>199</v>
-      </c>
-      <c r="E30" s="272"/>
-      <c r="F30" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I30" s="80">
-        <v>1</v>
-      </c>
-      <c r="J30" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K30" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L30" s="79" t="s">
-        <v>201</v>
-      </c>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="150" t="s">
-        <v>197</v>
-      </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I31" s="80">
-        <v>1</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L31" s="79" t="s">
-        <v>208</v>
-      </c>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="285" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="286"/>
-      <c r="F32" s="78" t="s">
-        <v>174</v>
-      </c>
-      <c r="G32" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="80">
-        <v>1</v>
-      </c>
-      <c r="J32" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="271" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="272"/>
-      <c r="F33" s="78" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="80">
-        <v>1</v>
-      </c>
-      <c r="J33" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="66"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="158" t="s">
-        <v>187</v>
-      </c>
-      <c r="E34" s="153"/>
-      <c r="F34" s="78" t="s">
-        <v>185</v>
-      </c>
-      <c r="G34" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" s="80">
-        <v>1</v>
-      </c>
-      <c r="J34" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K34" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L34" s="79" t="s">
-        <v>207</v>
-      </c>
-      <c r="M34" s="66"/>
-      <c r="N34" s="66"/>
-      <c r="O34" s="66"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="66"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="E35" s="153"/>
-      <c r="F35" s="137" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I35" s="80">
-        <v>1</v>
-      </c>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="137" t="s">
-        <v>256</v>
-      </c>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="66"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="E36" s="153"/>
-      <c r="F36" s="137" t="s">
-        <v>251</v>
-      </c>
-      <c r="G36" s="136" t="s">
-        <v>252</v>
-      </c>
-      <c r="H36" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I36" s="80">
-        <v>1</v>
-      </c>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="66"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="E37" s="153"/>
-      <c r="F37" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" s="80">
-        <v>1</v>
-      </c>
-      <c r="J37" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L37" s="137" t="s">
-        <v>230</v>
-      </c>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="66"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="66"/>
-      <c r="N38" s="66"/>
-      <c r="O38" s="66"/>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="66"/>
-      <c r="B39" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="99"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="66"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="66"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="99"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="66"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="66"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="99"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="66"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="66"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="66"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="99"/>
-      <c r="J46" s="99"/>
-      <c r="K46" s="99"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="66"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="66"/>
-      <c r="O47" s="66"/>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="66"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="99"/>
-      <c r="J48" s="99"/>
-      <c r="K48" s="99"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="66"/>
-      <c r="O48" s="66"/>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="66"/>
-      <c r="B49" s="83"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="99"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="66"/>
-      <c r="N49" s="66"/>
-      <c r="O49" s="66"/>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="66"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99"/>
-      <c r="J50" s="99"/>
-      <c r="K50" s="99"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="66"/>
-      <c r="N50" s="66"/>
-      <c r="O50" s="66"/>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="66"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="99"/>
-      <c r="J51" s="99"/>
-      <c r="K51" s="99"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="66"/>
-      <c r="N51" s="66"/>
-      <c r="O51" s="66"/>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="66"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="66"/>
-      <c r="B53" s="83"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="99"/>
-      <c r="J53" s="99"/>
-      <c r="K53" s="99"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="66"/>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="66"/>
-      <c r="B54" s="83"/>
-      <c r="C54" s="92"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="99"/>
-      <c r="J54" s="99"/>
-      <c r="K54" s="99"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="66"/>
-      <c r="N54" s="66"/>
-      <c r="O54" s="66"/>
-    </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="66"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
-      <c r="M55" s="66"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="66"/>
-    </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="66"/>
-      <c r="B56" s="146" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
-      <c r="M56" s="66"/>
-      <c r="N56" s="66"/>
-      <c r="O56" s="66"/>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="66"/>
-      <c r="B57" s="154" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="G57" s="164" t="s">
-        <v>134</v>
-      </c>
-      <c r="H57" s="164" t="s">
-        <v>135</v>
-      </c>
-      <c r="I57" s="164" t="s">
-        <v>146</v>
-      </c>
-      <c r="J57" s="164" t="s">
-        <v>136</v>
-      </c>
-      <c r="K57" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="M57" s="66"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="66"/>
-    </row>
-    <row r="58" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="89"/>
-      <c r="B58" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K58" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L58" s="79"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="89"/>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="66"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="94" t="s">
-        <v>196</v>
-      </c>
-      <c r="D59" s="95"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="G59" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="80">
-        <v>1</v>
-      </c>
-      <c r="J59" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K59" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L59" s="79"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="91"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="282" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="272"/>
-      <c r="F60" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="G60" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H60" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I60" s="80">
-        <v>1</v>
-      </c>
-      <c r="J60" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K60" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L60" s="137" t="s">
-        <v>223</v>
-      </c>
-      <c r="M60" s="66"/>
-      <c r="N60" s="66"/>
-      <c r="O60" s="66"/>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="66"/>
-      <c r="B61" s="91"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="283"/>
-      <c r="F61" s="135" t="s">
-        <v>221</v>
-      </c>
-      <c r="G61" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="H61" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I61" s="80">
-        <v>1</v>
-      </c>
-      <c r="J61" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="K61" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="L61" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="91"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="284" t="s">
-        <v>226</v>
-      </c>
-      <c r="E62" s="283"/>
-      <c r="F62" s="135" t="s">
-        <v>224</v>
-      </c>
-      <c r="G62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I62" s="80">
-        <v>1</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L62" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-    </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="66"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="135" t="s">
-        <v>200</v>
-      </c>
-      <c r="G63" s="136" t="s">
-        <v>175</v>
-      </c>
-      <c r="H63" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I63" s="136" t="s">
-        <v>225</v>
-      </c>
-      <c r="J63" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63" s="136" t="s">
-        <v>140</v>
-      </c>
-      <c r="L63" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="M63" s="66"/>
-      <c r="N63" s="66"/>
-      <c r="O63" s="66"/>
-    </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="66"/>
-      <c r="B64" s="91"/>
-      <c r="C64" s="94" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="95"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H64" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="I64" s="80">
-        <v>1</v>
-      </c>
-      <c r="J64" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="L64" s="79"/>
-      <c r="M64" s="66"/>
-      <c r="N64" s="66"/>
-      <c r="O64" s="66"/>
-    </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="66"/>
-      <c r="B65" s="97"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="270"/>
-      <c r="E65" s="272"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="80"/>
-      <c r="H65" s="80"/>
-      <c r="I65" s="80"/>
-      <c r="J65" s="80"/>
-      <c r="K65" s="80"/>
-      <c r="L65" s="79"/>
-      <c r="M65" s="66"/>
-      <c r="N65" s="66"/>
-      <c r="O65" s="66"/>
-    </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="99"/>
-      <c r="I66" s="99"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="99"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-    </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="66"/>
-      <c r="B67" s="74" t="s">
-        <v>210</v>
-      </c>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-    </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-    </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
-      <c r="M69" s="66"/>
-      <c r="N69" s="66"/>
-      <c r="O69" s="66"/>
-    </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-    </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
-      <c r="M71" s="66"/>
-      <c r="N71" s="66"/>
-      <c r="O71" s="66"/>
-    </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
-      <c r="M72" s="66"/>
-      <c r="N72" s="66"/>
-      <c r="O72" s="66"/>
-    </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
-      <c r="M73" s="66"/>
-      <c r="N73" s="66"/>
-      <c r="O73" s="66"/>
-    </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="66"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
-      <c r="M74" s="66"/>
-      <c r="N74" s="66"/>
-      <c r="O74" s="66"/>
-    </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
-      <c r="M75" s="66"/>
-      <c r="N75" s="66"/>
-      <c r="O75" s="66"/>
-    </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
-      <c r="M76" s="66"/>
-      <c r="N76" s="66"/>
-      <c r="O76" s="66"/>
-    </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
-      <c r="M77" s="66"/>
-      <c r="N77" s="66"/>
-      <c r="O77" s="66"/>
-    </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="66"/>
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
-      <c r="M78" s="66"/>
-      <c r="N78" s="66"/>
-      <c r="O78" s="66"/>
-    </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="66"/>
-      <c r="M79" s="66"/>
-      <c r="N79" s="66"/>
-      <c r="O79" s="66"/>
-    </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="66"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="66"/>
-      <c r="M80" s="66"/>
-      <c r="N80" s="66"/>
-      <c r="O80" s="66"/>
-    </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
-      <c r="M81" s="66"/>
-      <c r="N81" s="66"/>
-      <c r="O81" s="66"/>
-    </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="66"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
-      <c r="M82" s="66"/>
-      <c r="N82" s="66"/>
-      <c r="O82" s="66"/>
-    </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
-      <c r="M83" s="66"/>
-      <c r="N83" s="66"/>
-      <c r="O83" s="66"/>
-    </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
-      <c r="M84" s="66"/>
-      <c r="N84" s="66"/>
-      <c r="O84" s="66"/>
-    </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
-      <c r="M85" s="66"/>
-      <c r="N85" s="66"/>
-      <c r="O85" s="66"/>
-    </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
-      <c r="M86" s="66"/>
-      <c r="N86" s="66"/>
-      <c r="O86" s="66"/>
-    </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="66"/>
-      <c r="B87" s="100"/>
-      <c r="C87" s="100"/>
-      <c r="D87" s="100"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="100"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="100"/>
-      <c r="J87" s="100"/>
-      <c r="K87" s="100"/>
-      <c r="L87" s="100"/>
-      <c r="M87" s="66"/>
-      <c r="N87" s="66"/>
-      <c r="O87" s="66"/>
-    </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="100"/>
-      <c r="M88" s="100"/>
-      <c r="N88" s="100"/>
-      <c r="O88" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P94"/>
-  <sheetViews>
-    <sheetView topLeftCell="B82" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="10.875" style="67"/>
-    <col min="2" max="2" width="17.875" style="67" customWidth="1"/>
-    <col min="3" max="3" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="67" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="67"/>
-    <col min="8" max="8" width="11.875" style="67" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="67" customWidth="1"/>
-    <col min="11" max="11" width="5.875" style="67" customWidth="1"/>
-    <col min="12" max="12" width="38.875" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="67"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-    </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="140" t="s">
-        <v>297</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="66"/>
-      <c r="B3" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="66"/>
-      <c r="B4" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="282" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="271"/>
-      <c r="E4" s="271"/>
-      <c r="F4" s="271"/>
-      <c r="G4" s="271"/>
-      <c r="H4" s="271"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="70" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="282" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="272"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="70" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="158"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="158"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="66"/>
-      <c r="B7" s="70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="270" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" s="271"/>
-      <c r="E7" s="271"/>
-      <c r="F7" s="271"/>
-      <c r="G7" s="271"/>
-      <c r="H7" s="271"/>
-      <c r="I7" s="272"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="66"/>
-      <c r="B8" s="70" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="152" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="66"/>
-      <c r="B9" s="70" t="s">
-        <v>211</v>
-      </c>
-      <c r="C9" s="270" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="272"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="66"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="66"/>
-      <c r="B13" s="274" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="275"/>
-      <c r="D13" s="275"/>
-      <c r="E13" s="275"/>
-      <c r="F13" s="275"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="275"/>
-      <c r="I13" s="275"/>
-      <c r="J13" s="275"/>
-      <c r="K13" s="275"/>
-      <c r="L13" s="276"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="66"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="164" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="164" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="164" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14" s="164" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="164" t="s">
-        <v>136</v>
-      </c>
-      <c r="H14" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="164" t="s">
-        <v>138</v>
-      </c>
-      <c r="J14" s="273" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="273"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-    </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="66"/>
-      <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
         <v>275</v>
       </c>
@@ -29874,7 +30430,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
@@ -29889,10 +30445,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="135" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>143</v>
@@ -29905,10 +30461,10 @@
         <v>250</v>
       </c>
       <c r="I16" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J16" s="287" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K16" s="280"/>
       <c r="L16" s="280"/>
@@ -29926,7 +30482,7 @@
         <v>221</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F17" s="80"/>
       <c r="G17" s="80"/>
@@ -29934,10 +30490,10 @@
         <v>1000</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -29966,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -29978,10 +30534,10 @@
       <c r="A19" s="66"/>
       <c r="B19" s="77"/>
       <c r="C19" s="193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D19" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E19" s="195" t="s">
         <v>249</v>
@@ -29991,7 +30547,7 @@
       <c r="H19" s="196"/>
       <c r="I19" s="185"/>
       <c r="J19" s="161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K19" s="197"/>
       <c r="L19" s="198"/>
@@ -30002,10 +30558,10 @@
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="82"/>
       <c r="C20" s="186" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D20" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E20" s="187" t="s">
         <v>249</v>
@@ -30019,7 +30575,7 @@
         <v>42029</v>
       </c>
       <c r="J20" s="186" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K20" s="188"/>
       <c r="L20" s="188"/>
@@ -30403,7 +30959,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -30459,11 +31015,11 @@
       <c r="B39" s="91"/>
       <c r="C39" s="96"/>
       <c r="D39" s="282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E39" s="283"/>
       <c r="F39" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G39" s="80" t="s">
         <v>175</v>
@@ -30481,7 +31037,7 @@
         <v>140</v>
       </c>
       <c r="L39" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -30506,7 +31062,7 @@
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
       <c r="L40" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -30539,7 +31095,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -30550,11 +31106,11 @@
       <c r="B42" s="91"/>
       <c r="C42" s="96"/>
       <c r="D42" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E42" s="283"/>
       <c r="F42" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>175</v>
@@ -30570,7 +31126,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -30581,11 +31137,11 @@
       <c r="B43" s="97"/>
       <c r="C43" s="98"/>
       <c r="D43" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E43" s="290"/>
       <c r="F43" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G43" s="136" t="s">
         <v>249</v>
@@ -30599,7 +31155,7 @@
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
       <c r="L43" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -31619,9 +32175,10 @@
   <hyperlinks>
     <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
     <hyperlink ref="I16" r:id="rId2" display="foo@mulodo.com"/>
+    <hyperlink ref="C6" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -31629,8 +32186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -31672,7 +32229,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -31713,7 +32270,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D4" s="292"/>
       <c r="E4" s="292"/>
@@ -31734,7 +32291,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D5" s="292"/>
       <c r="E5" s="292"/>
@@ -31754,8 +32311,8 @@
       <c r="B6" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="C6" t="s">
-        <v>319</v>
+      <c r="C6" s="172" t="s">
+        <v>385</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -31959,7 +32516,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K15" s="158"/>
       <c r="L15" s="153"/>
@@ -32346,7 +32903,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -32402,11 +32959,11 @@
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E34" s="283"/>
       <c r="F34" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>175</v>
@@ -32424,7 +32981,7 @@
         <v>140</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -32449,7 +33006,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -32482,7 +33039,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -32493,11 +33050,11 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -32513,7 +33070,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -32524,11 +33081,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -32542,7 +33099,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -33625,8 +34182,11 @@
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="J14:L14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -33677,7 +34237,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -33718,7 +34278,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -33739,7 +34299,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -33760,7 +34320,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -33946,7 +34506,7 @@
     <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D15" s="137" t="s">
         <v>258</v>
@@ -33963,7 +34523,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -33986,7 +34546,7 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J16" s="138" t="s">
         <v>276</v>
@@ -34001,10 +34561,10 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="135" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D17" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>143</v>
@@ -34017,10 +34577,10 @@
         <v>250</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J17" s="287" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K17" s="280"/>
       <c r="L17" s="280"/>
@@ -34038,7 +34598,7 @@
         <v>221</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="80"/>
@@ -34046,10 +34606,10 @@
         <v>1000</v>
       </c>
       <c r="I18" s="184" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -34078,7 +34638,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K19" s="158"/>
       <c r="L19" s="153"/>
@@ -34090,10 +34650,10 @@
       <c r="A20" s="66"/>
       <c r="B20" s="77"/>
       <c r="C20" s="193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D20" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E20" s="195" t="s">
         <v>249</v>
@@ -34107,7 +34667,7 @@
         <v>42061</v>
       </c>
       <c r="J20" s="161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K20" s="197"/>
       <c r="L20" s="198"/>
@@ -34118,10 +34678,10 @@
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="82"/>
       <c r="C21" s="186" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D21" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E21" s="187" t="s">
         <v>249</v>
@@ -34135,7 +34695,7 @@
         <v>42029</v>
       </c>
       <c r="J21" s="186" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K21" s="188"/>
       <c r="L21" s="188"/>
@@ -34519,7 +35079,7 @@
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
       <c r="D38" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E38" s="93"/>
       <c r="F38" s="135" t="s">
@@ -34575,11 +35135,11 @@
       <c r="B40" s="91"/>
       <c r="C40" s="96"/>
       <c r="D40" s="282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E40" s="283"/>
       <c r="F40" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G40" s="80" t="s">
         <v>175</v>
@@ -34597,7 +35157,7 @@
         <v>140</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -34622,7 +35182,7 @@
       <c r="J41" s="80"/>
       <c r="K41" s="80"/>
       <c r="L41" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -34655,7 +35215,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -34666,11 +35226,11 @@
       <c r="B43" s="91"/>
       <c r="C43" s="96"/>
       <c r="D43" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E43" s="283"/>
       <c r="F43" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G43" s="80" t="s">
         <v>175</v>
@@ -34686,7 +35246,7 @@
         <v>140</v>
       </c>
       <c r="L43" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -34697,11 +35257,11 @@
       <c r="B44" s="97"/>
       <c r="C44" s="98"/>
       <c r="D44" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E44" s="290"/>
       <c r="F44" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G44" s="136" t="s">
         <v>249</v>
@@ -34715,7 +35275,7 @@
       <c r="J44" s="80"/>
       <c r="K44" s="80"/>
       <c r="L44" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
@@ -35907,7 +36467,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -35948,7 +36508,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -35969,7 +36529,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -35990,7 +36550,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -36176,7 +36736,7 @@
     <row r="15" spans="1:15" ht="15">
       <c r="B15" s="77"/>
       <c r="C15" s="135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D15" s="137" t="s">
         <v>258</v>
@@ -36193,7 +36753,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -37747,7 +38307,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -37788,7 +38348,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -37809,7 +38369,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -37830,7 +38390,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -38392,7 +38952,7 @@
       <c r="B31" s="91"/>
       <c r="C31" s="96"/>
       <c r="D31" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E31" s="93"/>
       <c r="F31" s="135" t="s">
@@ -38448,11 +39008,11 @@
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
       <c r="D33" s="282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E33" s="283"/>
       <c r="F33" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G33" s="80" t="s">
         <v>175</v>
@@ -38470,7 +39030,7 @@
         <v>140</v>
       </c>
       <c r="L33" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
@@ -38495,7 +39055,7 @@
       <c r="J34" s="80"/>
       <c r="K34" s="80"/>
       <c r="L34" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -38528,7 +39088,7 @@
         <v>140</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -38539,11 +39099,11 @@
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
       <c r="D36" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E36" s="283"/>
       <c r="F36" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G36" s="80" t="s">
         <v>175</v>
@@ -38559,7 +39119,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -38570,11 +39130,11 @@
       <c r="B37" s="97"/>
       <c r="C37" s="98"/>
       <c r="D37" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E37" s="290"/>
       <c r="F37" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G37" s="136" t="s">
         <v>249</v>
@@ -38588,7 +39148,7 @@
       <c r="J37" s="80"/>
       <c r="K37" s="80"/>
       <c r="L37" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -39778,7 +40338,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -39819,7 +40379,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -39840,7 +40400,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -39861,7 +40421,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -40062,7 +40622,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="138" t="s">
         <v>276</v>
@@ -40452,7 +41012,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -40508,11 +41068,11 @@
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="282" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E34" s="283"/>
       <c r="F34" s="137" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G34" s="80" t="s">
         <v>175</v>
@@ -40530,7 +41090,7 @@
         <v>140</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -40555,7 +41115,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -40588,7 +41148,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -40599,11 +41159,11 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -40619,7 +41179,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -40630,11 +41190,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -40648,7 +41208,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -41839,7 +42399,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -41880,7 +42440,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -41901,7 +42461,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -41922,7 +42482,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -42112,7 +42672,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -42123,7 +42683,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
@@ -42138,10 +42698,10 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D16" s="137" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E16" s="136" t="s">
         <v>252</v>
@@ -42152,10 +42712,10 @@
       <c r="G16" s="80"/>
       <c r="H16" s="80"/>
       <c r="I16" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J16" s="289" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K16" s="294"/>
       <c r="L16" s="295"/>
@@ -42173,7 +42733,7 @@
         <v>221</v>
       </c>
       <c r="E17" s="136" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F17" s="80" t="s">
         <v>193</v>
@@ -42183,10 +42743,10 @@
         <v>1000</v>
       </c>
       <c r="I17" s="184" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -42215,7 +42775,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K18" s="158"/>
       <c r="L18" s="153"/>
@@ -42227,10 +42787,10 @@
       <c r="A19" s="66"/>
       <c r="B19" s="77"/>
       <c r="C19" s="193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D19" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E19" s="195" t="s">
         <v>249</v>
@@ -42240,7 +42800,7 @@
       <c r="H19" s="196"/>
       <c r="I19" s="185"/>
       <c r="J19" s="161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K19" s="197"/>
       <c r="L19" s="198"/>
@@ -42251,10 +42811,10 @@
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="82"/>
       <c r="C20" s="186" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D20" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E20" s="187" t="s">
         <v>249</v>
@@ -42268,7 +42828,7 @@
         <v>42029</v>
       </c>
       <c r="J20" s="186" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K20" s="188"/>
       <c r="L20" s="188"/>
@@ -42652,7 +43212,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -42679,7 +43239,7 @@
       <c r="B38" s="91"/>
       <c r="C38" s="96"/>
       <c r="D38" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E38" s="93"/>
       <c r="F38" s="135" t="s">
@@ -42757,7 +43317,7 @@
       <c r="J40" s="80"/>
       <c r="K40" s="80"/>
       <c r="L40" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -42790,7 +43350,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -42801,11 +43361,11 @@
       <c r="B42" s="91"/>
       <c r="C42" s="96"/>
       <c r="D42" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E42" s="283"/>
       <c r="F42" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G42" s="80" t="s">
         <v>175</v>
@@ -42819,7 +43379,7 @@
         <v>140</v>
       </c>
       <c r="L42" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -42830,11 +43390,11 @@
       <c r="B43" s="97"/>
       <c r="C43" s="98"/>
       <c r="D43" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E43" s="290"/>
       <c r="F43" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G43" s="136" t="s">
         <v>249</v>
@@ -42848,7 +43408,7 @@
       <c r="J43" s="80"/>
       <c r="K43" s="80"/>
       <c r="L43" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
@@ -44517,7 +45077,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -44558,7 +45118,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -44579,7 +45139,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -44600,7 +45160,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -44801,7 +45361,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="287" t="s">
         <v>276</v>
@@ -44822,7 +45382,7 @@
         <v>221</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F16" s="80" t="s">
         <v>193</v>
@@ -44832,10 +45392,10 @@
         <v>1000</v>
       </c>
       <c r="I16" s="184" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="J16" s="159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K16" s="158"/>
       <c r="L16" s="153"/>
@@ -44864,7 +45424,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="159" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K17" s="158"/>
       <c r="L17" s="153"/>
@@ -44876,10 +45436,10 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D18" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E18" s="195" t="s">
         <v>249</v>
@@ -44893,7 +45453,7 @@
         <v>42030</v>
       </c>
       <c r="J18" s="161" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K18" s="197"/>
       <c r="L18" s="198"/>
@@ -44904,10 +45464,10 @@
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="82"/>
       <c r="C19" s="186" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D19" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E19" s="187" t="s">
         <v>249</v>
@@ -44921,7 +45481,7 @@
         <v>42029</v>
       </c>
       <c r="J19" s="186" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K19" s="188"/>
       <c r="L19" s="188"/>
@@ -45305,7 +45865,7 @@
       <c r="B36" s="91"/>
       <c r="C36" s="96"/>
       <c r="D36" s="199" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E36" s="93"/>
       <c r="F36" s="135" t="s">
@@ -45332,7 +45892,7 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E37" s="93"/>
       <c r="F37" s="135" t="s">
@@ -45410,7 +45970,7 @@
       <c r="J39" s="80"/>
       <c r="K39" s="80"/>
       <c r="L39" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
@@ -45443,7 +46003,7 @@
         <v>140</v>
       </c>
       <c r="L40" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
@@ -45454,11 +46014,11 @@
       <c r="B41" s="91"/>
       <c r="C41" s="96"/>
       <c r="D41" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E41" s="283"/>
       <c r="F41" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G41" s="80" t="s">
         <v>175</v>
@@ -45472,7 +46032,7 @@
         <v>140</v>
       </c>
       <c r="L41" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
@@ -45483,11 +46043,11 @@
       <c r="B42" s="97"/>
       <c r="C42" s="98"/>
       <c r="D42" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E42" s="290"/>
       <c r="F42" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G42" s="136" t="s">
         <v>249</v>
@@ -45501,7 +46061,7 @@
       <c r="J42" s="80"/>
       <c r="K42" s="80"/>
       <c r="L42" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
@@ -46571,7 +47131,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -46612,7 +47172,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -46633,7 +47193,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -46654,7 +47214,7 @@
         <v>172</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -46675,7 +47235,7 @@
         <v>181</v>
       </c>
       <c r="C7" s="282" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D7" s="271"/>
       <c r="E7" s="271"/>
@@ -46857,7 +47417,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="138" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K15" s="157"/>
       <c r="L15" s="157"/>
@@ -48411,7 +48971,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -48452,7 +49012,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -48473,7 +49033,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -48494,7 +49054,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -48681,10 +49241,10 @@
       <c r="A15" s="66"/>
       <c r="B15" s="82"/>
       <c r="C15" s="135" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -48695,10 +49255,10 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="289" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K15" s="294"/>
       <c r="L15" s="295"/>
@@ -49085,7 +49645,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -49112,7 +49672,7 @@
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
       <c r="D33" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="135" t="s">
@@ -49190,7 +49750,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -49223,7 +49783,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -49234,11 +49794,11 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -49252,7 +49812,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -49263,11 +49823,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -49281,7 +49841,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -50350,7 +50910,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -50391,7 +50951,7 @@
         <v>129</v>
       </c>
       <c r="C4" s="282" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D4" s="271"/>
       <c r="E4" s="271"/>
@@ -50412,7 +50972,7 @@
         <v>130</v>
       </c>
       <c r="C5" s="282" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D5" s="271"/>
       <c r="E5" s="271"/>
@@ -50433,7 +50993,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
@@ -50623,7 +51183,7 @@
         <v>275</v>
       </c>
       <c r="D15" s="137" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="E15" s="136" t="s">
         <v>252</v>
@@ -50634,7 +51194,7 @@
       <c r="G15" s="80"/>
       <c r="H15" s="80"/>
       <c r="I15" s="184" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="J15" s="289" t="s">
         <v>276</v>
@@ -51024,7 +51584,7 @@
       <c r="B32" s="91"/>
       <c r="C32" s="96"/>
       <c r="D32" s="199" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E32" s="93"/>
       <c r="F32" s="135" t="s">
@@ -51051,7 +51611,7 @@
       <c r="B33" s="91"/>
       <c r="C33" s="96"/>
       <c r="D33" s="199" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E33" s="93"/>
       <c r="F33" s="135" t="s">
@@ -51129,7 +51689,7 @@
       <c r="J35" s="80"/>
       <c r="K35" s="80"/>
       <c r="L35" s="137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -51162,7 +51722,7 @@
         <v>140</v>
       </c>
       <c r="L36" s="79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
@@ -51173,11 +51733,11 @@
       <c r="B37" s="91"/>
       <c r="C37" s="96"/>
       <c r="D37" s="282" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E37" s="283"/>
       <c r="F37" s="194" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G37" s="80" t="s">
         <v>175</v>
@@ -51191,7 +51751,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="79" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
@@ -51202,11 +51762,11 @@
       <c r="B38" s="97"/>
       <c r="C38" s="98"/>
       <c r="D38" s="289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="290"/>
       <c r="F38" s="186" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G38" s="136" t="s">
         <v>249</v>
@@ -51220,7 +51780,7 @@
       <c r="J38" s="80"/>
       <c r="K38" s="80"/>
       <c r="L38" s="137" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
@@ -52682,7 +53242,7 @@
   <dimension ref="B1:L66"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D12" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -52772,14 +53332,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="132" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D6" s="255" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E6" s="255"/>
       <c r="F6" s="151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G6" s="115"/>
       <c r="H6" s="115"/>
@@ -52852,7 +53412,7 @@
       </c>
       <c r="E11" s="257"/>
       <c r="F11" s="168" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G11" s="115"/>
       <c r="H11" s="115"/>
@@ -52865,11 +53425,11 @@
         <v>11</v>
       </c>
       <c r="D12" s="256" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E12" s="256"/>
       <c r="F12" s="165" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G12" s="115"/>
       <c r="H12" s="115"/>
@@ -53480,8 +54040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -53569,10 +54129,10 @@
         <v>166</v>
       </c>
       <c r="F5" s="177" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G5" s="177" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H5" s="127" t="s">
         <v>168</v>
@@ -53592,10 +54152,10 @@
         <v>245</v>
       </c>
       <c r="F6" s="177" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G6" s="177" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H6" s="127" t="s">
         <v>241</v>
@@ -53615,10 +54175,10 @@
         <v>284</v>
       </c>
       <c r="F7" s="169" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G7" s="177" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H7" s="127" t="s">
         <v>262</v>
@@ -53661,10 +54221,10 @@
         <v>284</v>
       </c>
       <c r="F9" s="169" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G9" s="177" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H9" s="127" t="s">
         <v>273</v>
@@ -53681,13 +54241,13 @@
       </c>
       <c r="D10" s="263"/>
       <c r="E10" s="176" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F10" s="169" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G10" s="177" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="H10" s="127" t="s">
         <v>288</v>
@@ -53721,13 +54281,13 @@
         <v>166</v>
       </c>
       <c r="F12" s="202" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="202" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="203" t="s">
         <v>290</v>
-      </c>
-      <c r="G12" s="202" t="s">
-        <v>291</v>
-      </c>
-      <c r="H12" s="203" t="s">
-        <v>292</v>
       </c>
       <c r="I12" s="108"/>
       <c r="J12" s="38"/>
@@ -53737,20 +54297,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="200" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D13" s="266"/>
       <c r="E13" s="201" t="s">
         <v>284</v>
       </c>
       <c r="F13" s="202" t="s">
-        <v>318</v>
+        <v>383</v>
       </c>
       <c r="G13" s="202" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="H13" s="204" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J13" s="38"/>
     </row>
@@ -53759,20 +54319,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="200" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D14" s="266"/>
       <c r="E14" s="201" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F14" s="202" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G14" s="202" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H14" s="200" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I14" s="108"/>
       <c r="J14" s="38"/>
@@ -53782,20 +54342,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="200" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D15" s="266"/>
       <c r="E15" s="201" t="s">
         <v>261</v>
       </c>
       <c r="F15" s="202" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="G15" s="201" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="H15" s="200" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="I15" s="108"/>
       <c r="J15" s="38"/>
@@ -53805,20 +54365,20 @@
         <v>12</v>
       </c>
       <c r="C16" s="200" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D16" s="266"/>
       <c r="E16" s="201" t="s">
         <v>261</v>
       </c>
       <c r="F16" s="202" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G16" s="202" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H16" s="200" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="I16" s="108"/>
       <c r="J16" s="38"/>
@@ -53867,7 +54427,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="180" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D20" s="267" t="s">
         <v>165</v>
@@ -53876,13 +54436,13 @@
         <v>166</v>
       </c>
       <c r="F20" s="177" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G20" s="177" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H20" s="127" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="I20" s="108"/>
       <c r="J20" s="38"/>
@@ -53892,20 +54452,20 @@
         <v>17</v>
       </c>
       <c r="C21" s="180" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D21" s="268"/>
       <c r="E21" s="201" t="s">
         <v>284</v>
       </c>
       <c r="F21" s="202" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G21" s="182" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H21" s="183" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="I21" s="108"/>
       <c r="J21" s="38"/>
@@ -53915,20 +54475,20 @@
         <v>18</v>
       </c>
       <c r="C22" s="180" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D22" s="268"/>
       <c r="E22" s="181" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F22" s="177" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G22" s="182" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H22" s="183" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="I22" s="108"/>
       <c r="J22" s="38"/>
@@ -53938,20 +54498,20 @@
         <v>19</v>
       </c>
       <c r="C23" s="180" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D23" s="268"/>
       <c r="E23" s="181" t="s">
         <v>261</v>
       </c>
       <c r="F23" s="177" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G23" s="182" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H23" s="180" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I23" s="108"/>
       <c r="J23" s="38"/>
@@ -53961,20 +54521,20 @@
         <v>20</v>
       </c>
       <c r="C24" s="180" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D24" s="268"/>
       <c r="E24" s="181" t="s">
         <v>261</v>
       </c>
       <c r="F24" s="177" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="G24" s="182" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H24" s="180" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="I24" s="108"/>
       <c r="J24" s="38"/>
@@ -54086,8 +54646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -54212,7 +54772,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -56266,7 +56826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A71" sqref="A71:J99"/>
     </sheetView>
   </sheetViews>
@@ -58249,7 +58809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -60102,7 +60662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O90"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -60228,7 +60788,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="172" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D6" s="158"/>
       <c r="E6" s="158"/>
